--- a/IS_456_COLUMN/IS456_Column_Specifications__0821_3.xlsx
+++ b/IS_456_COLUMN/IS456_Column_Specifications__0821_3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="8265" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15330" windowHeight="8265" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Scope" sheetId="1" r:id="rId1"/>
@@ -165,7 +165,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="229">
   <si>
     <t>Development Specifications</t>
   </si>
@@ -742,12 +742,6 @@
     <t>Muy  =</t>
   </si>
   <si>
-    <t>ey  =</t>
-  </si>
-  <si>
-    <t>ex  =</t>
-  </si>
-  <si>
     <t>Delta  =</t>
   </si>
   <si>
@@ -787,9 +781,6 @@
     <t>Porvided area steel/minimum area of steel</t>
   </si>
   <si>
-    <t>PM CURVE AS PER IS 456</t>
-  </si>
-  <si>
     <t>Remove/ Hide</t>
   </si>
   <si>
@@ -812,9 +803,6 @@
   </si>
   <si>
     <t>ey =</t>
-  </si>
-  <si>
-    <t>emin =</t>
   </si>
   <si>
     <t>eminy =</t>
@@ -1005,6 +993,15 @@
   </si>
   <si>
     <t>UniAxial and Biaxial</t>
+  </si>
+  <si>
+    <t>CHANGED PM CURVE AS PER IS 456</t>
+  </si>
+  <si>
+    <t>eminx =</t>
+  </si>
+  <si>
+    <t>[Annex F]</t>
   </si>
 </sst>
 </file>
@@ -2045,230 +2042,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2305,12 +2080,234 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="37" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2398,8 +2395,8 @@
       <xdr:rowOff>9196</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="371833" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -2435,6 +2432,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -2480,7 +2478,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -6735,8 +6733,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3116080" y="1952473"/>
-          <a:ext cx="10639302" cy="7948273"/>
+          <a:off x="3103656" y="1988709"/>
+          <a:ext cx="10592712" cy="8111338"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9937,8 +9935,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10028806" y="7456085"/>
-          <a:ext cx="895177" cy="181774"/>
+          <a:off x="10068666" y="7604654"/>
+          <a:ext cx="898024" cy="185397"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9997,8 +9995,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10034759" y="7652540"/>
-          <a:ext cx="901131" cy="187726"/>
+          <a:off x="10074619" y="7804732"/>
+          <a:ext cx="903978" cy="191351"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10057,8 +10055,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10023793" y="8467176"/>
-          <a:ext cx="906143" cy="170807"/>
+          <a:off x="10063653" y="8637487"/>
+          <a:ext cx="908990" cy="174431"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10117,8 +10115,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10031627" y="8663631"/>
-          <a:ext cx="898310" cy="188666"/>
+          <a:off x="10071487" y="8837566"/>
+          <a:ext cx="901157" cy="192289"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18105,15 +18103,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>124</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>505240</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>30645</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>46384</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>69988</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -18137,8 +18135,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="142875" y="2981325"/>
-          <a:ext cx="9144000" cy="19583400"/>
+          <a:off x="505240" y="22443384"/>
+          <a:ext cx="9165535" cy="19718821"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18159,16 +18157,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>195</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>645217</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>70814</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>157785</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>148257</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -18192,8 +18190,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2238375" y="25088850"/>
-          <a:ext cx="6372225" cy="10210800"/>
+          <a:off x="645217" y="43620771"/>
+          <a:ext cx="6387133" cy="10281616"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18215,19 +18213,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>206</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>295</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>338758</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>166481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>129208</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>61706</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10"/>
+        <xdr:cNvPr id="7" name="Picture 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -18247,8 +18245,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="37280850"/>
-          <a:ext cx="11449050" cy="16182975"/>
+          <a:off x="338758" y="3264177"/>
+          <a:ext cx="11477211" cy="16294790"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18682,41 +18680,41 @@
   </cols>
   <sheetData>
     <row r="4" spans="5:13" ht="14.25" customHeight="1">
-      <c r="G4" s="131" t="s">
+      <c r="G4" s="156" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="131"/>
-      <c r="L4" s="131"/>
+      <c r="H4" s="156"/>
+      <c r="I4" s="156"/>
+      <c r="J4" s="156"/>
+      <c r="K4" s="156"/>
+      <c r="L4" s="156"/>
       <c r="M4" s="7"/>
     </row>
     <row r="5" spans="5:13" ht="14.25" customHeight="1">
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="131"/>
+      <c r="G5" s="156"/>
+      <c r="H5" s="156"/>
+      <c r="I5" s="156"/>
+      <c r="J5" s="156"/>
+      <c r="K5" s="156"/>
+      <c r="L5" s="156"/>
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="5:13" ht="14.25" customHeight="1">
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
-      <c r="K6" s="131"/>
-      <c r="L6" s="131"/>
+      <c r="G6" s="156"/>
+      <c r="H6" s="156"/>
+      <c r="I6" s="156"/>
+      <c r="J6" s="156"/>
+      <c r="K6" s="156"/>
+      <c r="L6" s="156"/>
       <c r="M6" s="7"/>
     </row>
     <row r="7" spans="5:13" ht="14.25" customHeight="1">
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="131"/>
-      <c r="K7" s="131"/>
-      <c r="L7" s="131"/>
+      <c r="G7" s="156"/>
+      <c r="H7" s="156"/>
+      <c r="I7" s="156"/>
+      <c r="J7" s="156"/>
+      <c r="K7" s="156"/>
+      <c r="L7" s="156"/>
       <c r="M7" s="7"/>
     </row>
     <row r="8" spans="5:13" ht="14.25" customHeight="1">
@@ -18738,118 +18736,118 @@
       </c>
       <c r="L13" s="21">
         <f ca="1">(TODAY())</f>
-        <v>42968</v>
+        <v>42969</v>
       </c>
     </row>
     <row r="14" spans="5:13" ht="15">
       <c r="E14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="132" t="s">
+      <c r="F14" s="157" t="s">
         <v>128</v>
       </c>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="132"/>
-      <c r="K14" s="132"/>
-      <c r="L14" s="133"/>
+      <c r="G14" s="157"/>
+      <c r="H14" s="157"/>
+      <c r="I14" s="157"/>
+      <c r="J14" s="157"/>
+      <c r="K14" s="157"/>
+      <c r="L14" s="158"/>
     </row>
     <row r="15" spans="5:13" ht="15">
       <c r="E15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F15" s="127" t="s">
+      <c r="F15" s="152" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="127"/>
-      <c r="H15" s="127"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="127"/>
-      <c r="L15" s="128"/>
+      <c r="G15" s="152"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="152"/>
+      <c r="J15" s="152"/>
+      <c r="K15" s="152"/>
+      <c r="L15" s="153"/>
     </row>
     <row r="16" spans="5:13" ht="15">
       <c r="E16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="127" t="s">
+      <c r="F16" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="127"/>
-      <c r="H16" s="127"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-      <c r="L16" s="128"/>
+      <c r="G16" s="152"/>
+      <c r="H16" s="152"/>
+      <c r="I16" s="152"/>
+      <c r="J16" s="152"/>
+      <c r="K16" s="152"/>
+      <c r="L16" s="153"/>
     </row>
     <row r="17" spans="5:12" ht="15">
       <c r="E17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="127" t="s">
+      <c r="F17" s="152" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="127"/>
-      <c r="L17" s="128"/>
+      <c r="G17" s="152"/>
+      <c r="H17" s="152"/>
+      <c r="I17" s="152"/>
+      <c r="J17" s="152"/>
+      <c r="K17" s="152"/>
+      <c r="L17" s="153"/>
     </row>
     <row r="18" spans="5:12" ht="30">
       <c r="E18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="127"/>
-      <c r="K18" s="127"/>
-      <c r="L18" s="128"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="152"/>
+      <c r="H18" s="152"/>
+      <c r="I18" s="152"/>
+      <c r="J18" s="152"/>
+      <c r="K18" s="152"/>
+      <c r="L18" s="153"/>
     </row>
     <row r="19" spans="5:12" ht="15">
       <c r="E19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="127" t="s">
+      <c r="F19" s="152" t="s">
         <v>81</v>
       </c>
-      <c r="G19" s="127"/>
-      <c r="H19" s="127"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="127"/>
-      <c r="K19" s="127"/>
-      <c r="L19" s="128"/>
+      <c r="G19" s="152"/>
+      <c r="H19" s="152"/>
+      <c r="I19" s="152"/>
+      <c r="J19" s="152"/>
+      <c r="K19" s="152"/>
+      <c r="L19" s="153"/>
     </row>
     <row r="20" spans="5:12" ht="15">
       <c r="E20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F20" s="127" t="s">
+      <c r="F20" s="152" t="s">
         <v>25</v>
       </c>
-      <c r="G20" s="127"/>
-      <c r="H20" s="127"/>
-      <c r="I20" s="127"/>
-      <c r="J20" s="127"/>
-      <c r="K20" s="127"/>
-      <c r="L20" s="128"/>
+      <c r="G20" s="152"/>
+      <c r="H20" s="152"/>
+      <c r="I20" s="152"/>
+      <c r="J20" s="152"/>
+      <c r="K20" s="152"/>
+      <c r="L20" s="153"/>
     </row>
     <row r="21" spans="5:12" ht="33.75" customHeight="1" thickBot="1">
       <c r="E21" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="129" t="s">
+      <c r="F21" s="154" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="129"/>
-      <c r="H21" s="129"/>
-      <c r="I21" s="129"/>
-      <c r="J21" s="129"/>
-      <c r="K21" s="129"/>
-      <c r="L21" s="130"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="154"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="154"/>
+      <c r="K21" s="154"/>
+      <c r="L21" s="155"/>
     </row>
     <row r="22" spans="5:12" ht="15">
       <c r="E22" s="3"/>
@@ -18889,8 +18887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA112"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F111" sqref="F111"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -18907,14 +18905,14 @@
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
       <c r="E1" s="27"/>
-      <c r="F1" s="131" t="s">
+      <c r="F1" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
       <c r="L1" s="27"/>
       <c r="M1" s="27"/>
       <c r="N1" s="27"/>
@@ -18925,12 +18923,12 @@
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
       <c r="L2" s="27"/>
       <c r="M2" s="27"/>
       <c r="N2" s="27"/>
@@ -18941,12 +18939,12 @@
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
       <c r="L3" s="27"/>
       <c r="M3" s="27"/>
       <c r="N3" s="27"/>
@@ -18957,12 +18955,12 @@
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="131"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="156"/>
+      <c r="I4" s="156"/>
+      <c r="J4" s="156"/>
+      <c r="K4" s="156"/>
       <c r="L4" s="27"/>
       <c r="M4" s="27"/>
       <c r="N4" s="27"/>
@@ -18977,7 +18975,7 @@
         <v>33</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="33"/>
@@ -18991,35 +18989,35 @@
       <c r="L6" s="34"/>
     </row>
     <row r="7" spans="1:27">
-      <c r="A7" s="210" t="s">
+      <c r="A7" s="136" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="211">
+      <c r="B7" s="137">
         <v>400</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>220</v>
-      </c>
-      <c r="D7" s="211" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" s="137" t="s">
         <v>147</v>
       </c>
-      <c r="E7" s="211">
+      <c r="E7" s="137">
         <v>60</v>
       </c>
-      <c r="F7" s="212" t="s">
-        <v>220</v>
-      </c>
-      <c r="G7" s="213" t="s">
+      <c r="F7" s="138" t="s">
+        <v>216</v>
+      </c>
+      <c r="G7" s="139" t="s">
         <v>149</v>
       </c>
-      <c r="H7" s="211">
+      <c r="H7" s="137">
         <v>1600000</v>
       </c>
-      <c r="I7" s="214" t="s">
+      <c r="I7" s="140" t="s">
         <v>120</v>
       </c>
-      <c r="J7" s="211"/>
-      <c r="K7" s="211"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
       <c r="L7" s="65"/>
     </row>
     <row r="8" spans="1:27">
@@ -19030,7 +19028,7 @@
         <v>600</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
@@ -19042,21 +19040,21 @@
         <v>120000000</v>
       </c>
       <c r="I8" s="106" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J8" s="37"/>
       <c r="K8" s="37"/>
       <c r="L8" s="63"/>
     </row>
-    <row r="9" spans="1:27" ht="17.25">
+    <row r="9" spans="1:27" ht="15">
       <c r="A9" s="36" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="37">
         <v>15</v>
       </c>
-      <c r="C9" s="215" t="s">
-        <v>222</v>
+      <c r="C9" s="141" t="s">
+        <v>218</v>
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
@@ -19068,21 +19066,21 @@
         <v>90000000</v>
       </c>
       <c r="I9" s="106" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
       <c r="L9" s="63"/>
     </row>
-    <row r="10" spans="1:27" ht="17.25">
+    <row r="10" spans="1:27" ht="15">
       <c r="A10" s="36" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="37">
         <v>415</v>
       </c>
-      <c r="C10" s="215" t="s">
-        <v>222</v>
+      <c r="C10" s="141" t="s">
+        <v>218</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
@@ -19116,13 +19114,13 @@
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="36" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B12" s="37">
         <v>3500</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D12" s="37"/>
       <c r="E12" s="37"/>
@@ -19136,13 +19134,13 @@
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="36" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B13" s="37">
         <v>3500</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D13" s="37"/>
       <c r="E13" s="37"/>
@@ -19155,13 +19153,8 @@
       <c r="L13" s="63"/>
     </row>
     <row r="14" spans="1:27">
-      <c r="A14" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="B14" s="37">
-        <f>H8/H7</f>
-        <v>75</v>
-      </c>
+      <c r="A14" s="36"/>
+      <c r="B14" s="37"/>
       <c r="C14" s="52"/>
       <c r="D14" s="37"/>
       <c r="E14" s="37"/>
@@ -19174,22 +19167,17 @@
       <c r="L14" s="63"/>
     </row>
     <row r="15" spans="1:27" ht="15" thickBot="1">
-      <c r="A15" s="216" t="s">
-        <v>152</v>
-      </c>
-      <c r="B15" s="217">
-        <f>H9/H7</f>
-        <v>56.25</v>
-      </c>
+      <c r="A15" s="142"/>
+      <c r="B15" s="143"/>
       <c r="C15" s="53"/>
-      <c r="D15" s="217"/>
-      <c r="E15" s="217"/>
+      <c r="D15" s="143"/>
+      <c r="E15" s="143"/>
       <c r="F15" s="53"/>
-      <c r="G15" s="217"/>
-      <c r="H15" s="217"/>
+      <c r="G15" s="143"/>
+      <c r="H15" s="143"/>
       <c r="I15" s="53"/>
-      <c r="J15" s="217"/>
-      <c r="K15" s="217"/>
+      <c r="J15" s="143"/>
+      <c r="K15" s="143"/>
       <c r="L15" s="64"/>
       <c r="M15" s="35"/>
       <c r="N15" s="35"/>
@@ -19233,7 +19221,7 @@
       <c r="S16" s="122"/>
       <c r="T16" s="122"/>
       <c r="U16" s="122"/>
-      <c r="V16" s="206"/>
+      <c r="V16" s="132"/>
       <c r="W16" s="122"/>
       <c r="X16" s="122"/>
       <c r="Y16" s="122"/>
@@ -19241,7 +19229,7 @@
       <c r="AA16" s="122"/>
     </row>
     <row r="17" spans="1:27">
-      <c r="A17" s="208" t="s">
+      <c r="A17" s="134" t="s">
         <v>149</v>
       </c>
       <c r="B17" s="29">
@@ -19263,7 +19251,7 @@
       <c r="M17" s="122"/>
       <c r="N17" s="122"/>
       <c r="O17" s="122"/>
-      <c r="P17" s="207"/>
+      <c r="P17" s="133"/>
       <c r="Q17" s="122"/>
       <c r="R17" s="122"/>
       <c r="S17" s="122"/>
@@ -19285,7 +19273,7 @@
         <v>120000000</v>
       </c>
       <c r="C18" s="106" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D18" s="105"/>
       <c r="E18" s="29"/>
@@ -19299,7 +19287,7 @@
       <c r="M18" s="35"/>
       <c r="N18" s="35"/>
       <c r="O18" s="35"/>
-      <c r="P18" s="205"/>
+      <c r="P18" s="131"/>
       <c r="Q18" s="122"/>
       <c r="R18" s="122"/>
       <c r="S18" s="122"/>
@@ -19321,7 +19309,7 @@
         <v>90000000</v>
       </c>
       <c r="C19" s="106" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D19" s="105"/>
       <c r="E19" s="29"/>
@@ -19335,7 +19323,7 @@
       <c r="M19" s="122"/>
       <c r="N19" s="122"/>
       <c r="O19" s="122"/>
-      <c r="P19" s="205"/>
+      <c r="P19" s="131"/>
       <c r="Q19" s="35"/>
       <c r="R19" s="35"/>
       <c r="S19" s="35"/>
@@ -19364,7 +19352,7 @@
       <c r="M20" s="122"/>
       <c r="N20" s="122"/>
       <c r="O20" s="122"/>
-      <c r="P20" s="205"/>
+      <c r="P20" s="131"/>
       <c r="Q20" s="35"/>
       <c r="R20" s="35"/>
       <c r="S20" s="35"/>
@@ -19393,7 +19381,7 @@
       <c r="M21" s="122"/>
       <c r="N21" s="122"/>
       <c r="O21" s="122"/>
-      <c r="P21" s="205"/>
+      <c r="P21" s="131"/>
       <c r="Q21" s="122"/>
       <c r="R21" s="122"/>
       <c r="S21" s="122"/>
@@ -19408,11 +19396,11 @@
     </row>
     <row r="22" spans="1:27" ht="15">
       <c r="A22" s="28" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B22" s="29"/>
       <c r="C22" s="42" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
@@ -19420,13 +19408,13 @@
       <c r="G22" s="29"/>
       <c r="H22" s="29"/>
       <c r="I22" s="29"/>
-      <c r="J22" s="209"/>
+      <c r="J22" s="135"/>
       <c r="K22" s="29"/>
       <c r="L22" s="30"/>
       <c r="M22" s="122"/>
       <c r="N22" s="122"/>
       <c r="O22" s="122"/>
-      <c r="P22" s="205"/>
+      <c r="P22" s="131"/>
       <c r="Q22" s="122"/>
       <c r="R22" s="122"/>
       <c r="S22" s="122"/>
@@ -19441,14 +19429,14 @@
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="28" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B23" s="29">
         <f>1*B12</f>
         <v>3500</v>
       </c>
-      <c r="C23" s="200" t="s">
-        <v>220</v>
+      <c r="C23" s="127" t="s">
+        <v>216</v>
       </c>
       <c r="D23" s="105"/>
       <c r="E23" s="29"/>
@@ -19477,16 +19465,16 @@
     </row>
     <row r="24" spans="1:27" ht="15">
       <c r="A24" s="47" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B24" s="35">
         <f>1*B13</f>
         <v>3500</v>
       </c>
-      <c r="C24" s="200" t="s">
-        <v>220</v>
-      </c>
-      <c r="D24" s="205"/>
+      <c r="C24" s="127" t="s">
+        <v>216</v>
+      </c>
+      <c r="D24" s="131"/>
       <c r="E24" s="35"/>
       <c r="F24" s="35"/>
       <c r="G24" s="35"/>
@@ -19498,7 +19486,7 @@
       <c r="M24" s="122"/>
       <c r="N24" s="122"/>
       <c r="O24" s="122"/>
-      <c r="P24" s="205"/>
+      <c r="P24" s="131"/>
       <c r="Q24" s="122"/>
       <c r="R24" s="122"/>
       <c r="S24" s="122"/>
@@ -19542,14 +19530,14 @@
     </row>
     <row r="26" spans="1:27">
       <c r="A26" s="47" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B26" s="35">
         <f>H8/H7</f>
         <v>75</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D26" s="35"/>
       <c r="E26" s="35"/>
@@ -19557,8 +19545,8 @@
       <c r="G26" s="35"/>
       <c r="H26" s="35"/>
       <c r="I26" s="35"/>
-      <c r="J26" s="200" t="s">
-        <v>225</v>
+      <c r="J26" s="127" t="s">
+        <v>221</v>
       </c>
       <c r="K26" s="35"/>
       <c r="L26" s="48"/>
@@ -19580,14 +19568,14 @@
     </row>
     <row r="27" spans="1:27">
       <c r="A27" s="47" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B27" s="35">
         <f>H9/H7</f>
         <v>56.25</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D27" s="35"/>
       <c r="E27" s="35"/>
@@ -19645,14 +19633,14 @@
     </row>
     <row r="29" spans="1:27">
       <c r="A29" s="47" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="B29" s="35">
         <f>B12/500 +B8/30</f>
         <v>27</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D29" s="35"/>
       <c r="E29" s="35"/>
@@ -19681,14 +19669,14 @@
     </row>
     <row r="30" spans="1:27">
       <c r="A30" s="28" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B30" s="35">
         <f>B13/500 +B8/30</f>
         <v>27</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D30" s="35"/>
       <c r="E30" s="35"/>
@@ -19730,7 +19718,7 @@
       <c r="L31" s="48"/>
       <c r="N31" s="35"/>
       <c r="O31" s="35"/>
-      <c r="P31" s="205"/>
+      <c r="P31" s="131"/>
       <c r="Q31" s="35"/>
       <c r="R31" s="35"/>
       <c r="S31" s="35"/>
@@ -19745,7 +19733,7 @@
     </row>
     <row r="32" spans="1:27">
       <c r="A32" s="121" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B32" s="122">
         <f>B23/B8</f>
@@ -19781,7 +19769,7 @@
     </row>
     <row r="33" spans="1:27">
       <c r="A33" s="121" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B33" s="35">
         <f>B13/B7</f>
@@ -19814,11 +19802,11 @@
     </row>
     <row r="34" spans="1:27" ht="15">
       <c r="A34" s="47" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B34" s="35"/>
       <c r="C34" s="35"/>
-      <c r="D34" s="205"/>
+      <c r="D34" s="131"/>
       <c r="E34" s="35"/>
       <c r="F34" s="35"/>
       <c r="G34" s="35"/>
@@ -19874,7 +19862,7 @@
     </row>
     <row r="36" spans="1:27">
       <c r="A36" s="121" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B36" s="122">
         <v>3048</v>
@@ -19936,7 +19924,7 @@
     </row>
     <row r="38" spans="1:27">
       <c r="A38" s="121" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B38" s="122">
         <f>E7/B8</f>
@@ -19970,7 +19958,7 @@
     </row>
     <row r="39" spans="1:27">
       <c r="A39" s="47" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B39" s="35">
         <f>B36/(B7*B8*B9)*100</f>
@@ -20004,7 +19992,7 @@
     </row>
     <row r="40" spans="1:27">
       <c r="A40" s="47" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B40" s="35"/>
       <c r="C40" s="35">
@@ -20017,7 +20005,7 @@
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
       <c r="J40" s="35" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="K40" s="35"/>
       <c r="L40" s="48"/>
@@ -20039,7 +20027,7 @@
     </row>
     <row r="41" spans="1:27">
       <c r="A41" s="47" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B41" s="35"/>
       <c r="C41" s="35">
@@ -20047,7 +20035,7 @@
         <v>205200000</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E41" s="35"/>
       <c r="F41" s="35"/>
@@ -20104,7 +20092,7 @@
     </row>
     <row r="43" spans="1:27">
       <c r="A43" s="121" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B43" s="122">
         <f>E7/B7</f>
@@ -20138,7 +20126,7 @@
     </row>
     <row r="44" spans="1:27">
       <c r="A44" s="47" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B44" s="35">
         <f>B36/(B7*B8*B9)*100</f>
@@ -20172,7 +20160,7 @@
     </row>
     <row r="45" spans="1:27">
       <c r="A45" s="47" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B45" s="35"/>
       <c r="C45" s="35">
@@ -20185,7 +20173,7 @@
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
       <c r="J45" s="35" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="K45" s="35"/>
       <c r="L45" s="48"/>
@@ -20207,7 +20195,7 @@
     </row>
     <row r="46" spans="1:27">
       <c r="A46" s="47" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B46" s="35"/>
       <c r="C46" s="35">
@@ -20215,7 +20203,7 @@
         <v>122400000.00000001</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E46" s="35"/>
       <c r="F46" s="35"/>
@@ -20272,7 +20260,7 @@
     </row>
     <row r="48" spans="1:27">
       <c r="A48" s="47" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B48" s="35"/>
       <c r="C48" s="35">
@@ -20286,7 +20274,7 @@
       <c r="H48" s="35"/>
       <c r="I48" s="35"/>
       <c r="J48" s="35" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K48" s="35"/>
       <c r="L48" s="48"/>
@@ -20308,7 +20296,7 @@
     </row>
     <row r="49" spans="1:27">
       <c r="A49" s="47" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B49" s="35"/>
       <c r="C49" s="35">
@@ -20371,7 +20359,7 @@
     </row>
     <row r="51" spans="1:27">
       <c r="A51" s="47" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B51" s="35"/>
       <c r="C51" s="35"/>
@@ -20432,7 +20420,7 @@
     <row r="53" spans="1:27">
       <c r="A53" s="28"/>
       <c r="B53" s="35"/>
-      <c r="C53" s="201">
+      <c r="C53" s="164">
         <f>(H8/C41)^C49  +  (H9/C46)^C49</f>
         <v>0.99269644161220771</v>
       </c>
@@ -20442,7 +20430,9 @@
       <c r="G53" s="35"/>
       <c r="H53" s="35"/>
       <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
+      <c r="J53" s="35" t="s">
+        <v>224</v>
+      </c>
       <c r="K53" s="35"/>
       <c r="L53" s="48"/>
       <c r="M53" s="122"/>
@@ -20464,7 +20454,7 @@
     <row r="54" spans="1:27">
       <c r="A54" s="47"/>
       <c r="B54" s="35"/>
-      <c r="C54" s="201"/>
+      <c r="C54" s="164"/>
       <c r="D54" s="35"/>
       <c r="E54" s="35"/>
       <c r="F54" s="35"/>
@@ -20521,7 +20511,7 @@
     </row>
     <row r="56" spans="1:27">
       <c r="A56" s="47" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B56" s="35"/>
       <c r="C56" s="35"/>
@@ -20690,7 +20680,7 @@
         <v>400</v>
       </c>
       <c r="G61" s="60" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H61" s="60" t="s">
         <v>46</v>
@@ -20700,7 +20690,7 @@
         <v>600</v>
       </c>
       <c r="J61" s="60" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K61" s="60"/>
       <c r="L61" s="61"/>
@@ -20708,7 +20698,7 @@
       <c r="N61" s="122"/>
       <c r="O61" s="122"/>
     </row>
-    <row r="62" spans="1:27" ht="17.25">
+    <row r="62" spans="1:27" ht="15">
       <c r="A62" s="28" t="s">
         <v>45</v>
       </c>
@@ -20717,8 +20707,8 @@
         <f>C61/(F61*I61)</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="D62" s="202" t="s">
-        <v>222</v>
+      <c r="D62" s="128" t="s">
+        <v>218</v>
       </c>
       <c r="E62" s="42" t="s">
         <v>30</v>
@@ -20738,17 +20728,17 @@
       <c r="N62" s="42"/>
       <c r="O62" s="42"/>
     </row>
-    <row r="63" spans="1:27" ht="17.25">
+    <row r="63" spans="1:27" ht="15">
       <c r="A63" s="41" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B63" s="42"/>
       <c r="C63" s="42">
         <f>3217</f>
         <v>3217</v>
       </c>
-      <c r="D63" s="202" t="s">
-        <v>224</v>
+      <c r="D63" s="128" t="s">
+        <v>220</v>
       </c>
       <c r="E63" s="29"/>
       <c r="F63" s="29"/>
@@ -20764,7 +20754,7 @@
     </row>
     <row r="64" spans="1:27" ht="15">
       <c r="A64" s="41" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B64" s="42" t="s">
         <v>30</v>
@@ -20773,7 +20763,7 @@
         <f>1+3*H7/(F61*I61*B9)</f>
         <v>2.333333333333333</v>
       </c>
-      <c r="D64" s="202"/>
+      <c r="D64" s="128"/>
       <c r="E64" s="29"/>
       <c r="F64" s="29"/>
       <c r="G64" s="29"/>
@@ -20786,7 +20776,7 @@
       <c r="N64" s="42"/>
       <c r="O64" s="42"/>
     </row>
-    <row r="65" spans="1:15" ht="17.25">
+    <row r="65" spans="1:15" ht="15">
       <c r="A65" s="41" t="s">
         <v>41</v>
       </c>
@@ -20795,8 +20785,8 @@
         <f>0.79*C64</f>
         <v>1.8433333333333333</v>
       </c>
-      <c r="D65" s="202" t="s">
-        <v>222</v>
+      <c r="D65" s="128" t="s">
+        <v>218</v>
       </c>
       <c r="E65" s="42"/>
       <c r="F65" s="42"/>
@@ -20812,7 +20802,7 @@
       <c r="N65" s="42"/>
       <c r="O65" s="42"/>
     </row>
-    <row r="66" spans="1:15" ht="17.25">
+    <row r="66" spans="1:15" ht="15">
       <c r="A66" s="41" t="s">
         <v>44</v>
       </c>
@@ -20820,8 +20810,8 @@
       <c r="C66" s="42">
         <v>3.1</v>
       </c>
-      <c r="D66" s="202" t="s">
-        <v>222</v>
+      <c r="D66" s="128" t="s">
+        <v>218</v>
       </c>
       <c r="E66" s="42"/>
       <c r="F66" s="42"/>
@@ -20857,7 +20847,7 @@
       <c r="N67" s="42"/>
       <c r="O67" s="42"/>
     </row>
-    <row r="68" spans="1:15" ht="17.25">
+    <row r="68" spans="1:15" ht="15">
       <c r="A68" s="41" t="s">
         <v>47</v>
       </c>
@@ -20866,8 +20856,8 @@
         <f>ABS(F61*(C62-C65)/(0.87*B10))</f>
         <v>0.19572543045746188</v>
       </c>
-      <c r="D68" s="202" t="s">
-        <v>224</v>
+      <c r="D68" s="128" t="s">
+        <v>220</v>
       </c>
       <c r="E68" s="42"/>
       <c r="F68" s="42"/>
@@ -20963,7 +20953,7 @@
       <c r="I73" s="40"/>
       <c r="J73" s="40"/>
       <c r="K73" s="40"/>
-      <c r="L73" s="203"/>
+      <c r="L73" s="129"/>
       <c r="M73" s="122"/>
       <c r="N73" s="122"/>
       <c r="O73" s="122"/>
@@ -20985,7 +20975,7 @@
       <c r="N74" s="42"/>
       <c r="O74" s="42"/>
     </row>
-    <row r="75" spans="1:15" ht="17.25">
+    <row r="75" spans="1:15" ht="15">
       <c r="A75" s="28" t="s">
         <v>49</v>
       </c>
@@ -20994,8 +20984,8 @@
         <f>0.4*F61/(0.87*B10)</f>
         <v>0.44315191801689513</v>
       </c>
-      <c r="D75" s="202" t="s">
-        <v>224</v>
+      <c r="D75" s="128" t="s">
+        <v>220</v>
       </c>
       <c r="E75" s="29"/>
       <c r="F75" s="29"/>
@@ -21044,33 +21034,33 @@
       <c r="O77" s="42"/>
     </row>
     <row r="78" spans="1:15">
-      <c r="A78" s="218" t="s">
-        <v>205</v>
-      </c>
-      <c r="B78" s="204"/>
-      <c r="C78" s="204"/>
-      <c r="D78" s="204"/>
-      <c r="E78" s="204"/>
-      <c r="F78" s="204"/>
-      <c r="G78" s="204"/>
-      <c r="H78" s="204"/>
-      <c r="I78" s="204"/>
-      <c r="J78" s="204"/>
-      <c r="K78" s="204"/>
-      <c r="L78" s="219"/>
+      <c r="A78" s="144" t="s">
+        <v>201</v>
+      </c>
+      <c r="B78" s="130"/>
+      <c r="C78" s="130"/>
+      <c r="D78" s="130"/>
+      <c r="E78" s="130"/>
+      <c r="F78" s="130"/>
+      <c r="G78" s="130"/>
+      <c r="H78" s="130"/>
+      <c r="I78" s="130"/>
+      <c r="J78" s="130"/>
+      <c r="K78" s="130"/>
+      <c r="L78" s="145"/>
       <c r="M78" s="42"/>
       <c r="N78" s="42"/>
       <c r="O78" s="42"/>
     </row>
-    <row r="79" spans="1:15" ht="17.25">
+    <row r="79" spans="1:15" ht="15">
       <c r="A79" s="121" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B79" s="122">
         <v>450</v>
       </c>
-      <c r="C79" s="202" t="s">
-        <v>224</v>
+      <c r="C79" s="128" t="s">
+        <v>220</v>
       </c>
       <c r="D79" s="122"/>
       <c r="E79" s="122"/>
@@ -21087,13 +21077,13 @@
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="41" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B80" s="42">
         <v>150</v>
       </c>
-      <c r="C80" s="220" t="s">
-        <v>220</v>
+      <c r="C80" s="146" t="s">
+        <v>216</v>
       </c>
       <c r="D80" s="42"/>
       <c r="E80" s="42"/>
@@ -21110,7 +21100,7 @@
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="41" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B81" s="42">
         <f xml:space="preserve"> 0.87*B10*B79*I61/B80</f>
@@ -21132,7 +21122,7 @@
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="41" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B82" s="42">
         <f>0.79*C64*F61*I61</f>
@@ -21173,7 +21163,7 @@
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="41" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B84" s="42">
         <f>B82+B81</f>
@@ -21333,7 +21323,7 @@
     </row>
     <row r="93" spans="1:15" ht="15.75" thickBot="1">
       <c r="A93" s="56" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B93" s="57"/>
       <c r="C93" s="57"/>
@@ -21354,7 +21344,7 @@
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="59" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B94" s="60"/>
       <c r="C94" s="60">
@@ -21368,10 +21358,10 @@
       <c r="H94" s="60"/>
       <c r="I94" s="60"/>
       <c r="J94" s="60" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="K94" s="60" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="L94" s="61"/>
       <c r="M94" s="42"/>
@@ -21380,14 +21370,14 @@
     </row>
     <row r="95" spans="1:15" ht="15">
       <c r="A95" s="28" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B95" s="29"/>
       <c r="C95" s="29">
         <f>0.2*B9*B8*B7</f>
         <v>720000</v>
       </c>
-      <c r="D95" s="202"/>
+      <c r="D95" s="128"/>
       <c r="E95" s="42" t="s">
         <v>30</v>
       </c>
@@ -21406,11 +21396,11 @@
     </row>
     <row r="96" spans="1:15" ht="15">
       <c r="A96" s="41" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B96" s="42"/>
       <c r="C96" s="42"/>
-      <c r="D96" s="202" t="b">
+      <c r="D96" s="128" t="b">
         <f>IF(0.2*B9*B7*B8&gt;=C94,TRUE,FALSE)</f>
         <v>1</v>
       </c>
@@ -21428,19 +21418,19 @@
     </row>
     <row r="97" spans="1:15" ht="15">
       <c r="A97" s="121" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B97" s="42">
         <v>400</v>
       </c>
       <c r="C97" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="D97" s="202">
+        <v>209</v>
+      </c>
+      <c r="D97" s="128">
         <v>146.13999999999999</v>
       </c>
       <c r="E97" s="105" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F97" s="29"/>
       <c r="G97" s="29"/>
@@ -21455,15 +21445,15 @@
     </row>
     <row r="98" spans="1:15" ht="15">
       <c r="A98" s="41" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B98" s="42">
         <v>348</v>
       </c>
-      <c r="C98" s="220" t="s">
-        <v>220</v>
-      </c>
-      <c r="D98" s="202"/>
+      <c r="C98" s="146" t="s">
+        <v>216</v>
+      </c>
+      <c r="D98" s="128"/>
       <c r="E98" s="42"/>
       <c r="F98" s="42"/>
       <c r="G98" s="42"/>
@@ -21478,15 +21468,15 @@
     </row>
     <row r="99" spans="1:15" ht="15">
       <c r="A99" s="41" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B99" s="42">
         <v>1814</v>
       </c>
-      <c r="C99" s="220" t="s">
-        <v>224</v>
-      </c>
-      <c r="D99" s="202"/>
+      <c r="C99" s="146" t="s">
+        <v>220</v>
+      </c>
+      <c r="D99" s="128"/>
       <c r="E99" s="42"/>
       <c r="F99" s="42"/>
       <c r="G99" s="42"/>
@@ -21501,13 +21491,13 @@
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="41" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B100" s="122">
         <v>59.54</v>
       </c>
-      <c r="C100" s="207" t="s">
-        <v>220</v>
+      <c r="C100" s="133" t="s">
+        <v>216</v>
       </c>
       <c r="D100" s="42"/>
       <c r="E100" s="42"/>
@@ -21524,15 +21514,15 @@
     </row>
     <row r="101" spans="1:15" ht="15">
       <c r="A101" s="41" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B101" s="122">
         <v>250</v>
       </c>
-      <c r="C101" s="207" t="s">
-        <v>220</v>
-      </c>
-      <c r="D101" s="202"/>
+      <c r="C101" s="133" t="s">
+        <v>216</v>
+      </c>
+      <c r="D101" s="128"/>
       <c r="E101" s="42"/>
       <c r="F101" s="42"/>
       <c r="G101" s="42"/>
@@ -21547,15 +21537,15 @@
     </row>
     <row r="102" spans="1:15" ht="15">
       <c r="A102" s="41" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B102" s="122">
         <v>200000</v>
       </c>
-      <c r="C102" s="220" t="s">
-        <v>222</v>
-      </c>
-      <c r="D102" s="202"/>
+      <c r="C102" s="146" t="s">
+        <v>218</v>
+      </c>
+      <c r="D102" s="128"/>
       <c r="E102" s="42"/>
       <c r="F102" s="42"/>
       <c r="G102" s="42"/>
@@ -21570,15 +21560,15 @@
     </row>
     <row r="103" spans="1:15" ht="15">
       <c r="A103" s="41" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B103" s="122">
         <v>224</v>
       </c>
-      <c r="C103" s="220" t="s">
-        <v>222</v>
-      </c>
-      <c r="D103" s="202"/>
+      <c r="C103" s="146" t="s">
+        <v>218</v>
+      </c>
+      <c r="D103" s="128"/>
       <c r="E103" s="42"/>
       <c r="F103" s="42"/>
       <c r="G103" s="42"/>
@@ -21593,12 +21583,12 @@
     </row>
     <row r="104" spans="1:15" ht="15">
       <c r="A104" s="41" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B104" s="122">
         <v>38</v>
       </c>
-      <c r="D104" s="202"/>
+      <c r="D104" s="128"/>
       <c r="E104" s="42"/>
       <c r="F104" s="42"/>
       <c r="G104" s="42"/>
@@ -21621,7 +21611,9 @@
       <c r="G105" s="42"/>
       <c r="H105" s="42"/>
       <c r="I105" s="42"/>
-      <c r="J105" s="42"/>
+      <c r="J105" s="29" t="s">
+        <v>228</v>
+      </c>
       <c r="K105" s="42"/>
       <c r="L105" s="49"/>
       <c r="M105" s="42"/>
@@ -21630,20 +21622,22 @@
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="41" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B106" s="42">
         <f>(1/B102)*(B97-D97)/(B98-D97) *(B103-B101*(B97-D97)/(3*B99))</f>
         <v>1.3351854306766259E-3</v>
       </c>
-      <c r="C106" s="207"/>
+      <c r="C106" s="133"/>
       <c r="D106" s="42"/>
       <c r="E106" s="42"/>
       <c r="F106" s="42"/>
       <c r="G106" s="42"/>
       <c r="H106" s="42"/>
       <c r="I106" s="42"/>
-      <c r="J106" s="42"/>
+      <c r="J106" s="29" t="s">
+        <v>228</v>
+      </c>
       <c r="K106" s="42"/>
       <c r="L106" s="49"/>
       <c r="M106" s="42"/>
@@ -21652,14 +21646,14 @@
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="41" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B107" s="29">
         <f>3*B100*B106/(1+(2*(B100-B104)/(B97-D97)))</f>
         <v>0.20389061756027049</v>
       </c>
-      <c r="C107" s="220" t="s">
-        <v>220</v>
+      <c r="C107" s="146" t="s">
+        <v>216</v>
       </c>
       <c r="D107" s="29"/>
       <c r="E107" s="29"/>
@@ -21667,13 +21661,12 @@
       <c r="G107" s="29"/>
       <c r="H107" s="29"/>
       <c r="I107" s="29"/>
-      <c r="J107" s="29"/>
       <c r="K107" s="29"/>
       <c r="L107" s="30"/>
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="28" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B108" s="29"/>
       <c r="C108" s="29">
@@ -21681,7 +21674,7 @@
         <v>0.20389061756027049</v>
       </c>
       <c r="D108" s="105" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E108" s="29"/>
       <c r="F108" s="29"/>
@@ -21735,18 +21728,18 @@
       <c r="L111" s="30"/>
     </row>
     <row r="112" spans="1:15" ht="15" thickBot="1">
-      <c r="A112" s="221"/>
-      <c r="B112" s="222"/>
-      <c r="C112" s="222"/>
-      <c r="D112" s="222"/>
-      <c r="E112" s="222"/>
-      <c r="F112" s="222"/>
-      <c r="G112" s="222"/>
-      <c r="H112" s="222"/>
-      <c r="I112" s="222"/>
-      <c r="J112" s="222"/>
-      <c r="K112" s="222"/>
-      <c r="L112" s="223"/>
+      <c r="A112" s="147"/>
+      <c r="B112" s="148"/>
+      <c r="C112" s="148"/>
+      <c r="D112" s="148"/>
+      <c r="E112" s="148"/>
+      <c r="F112" s="148"/>
+      <c r="G112" s="148"/>
+      <c r="H112" s="148"/>
+      <c r="I112" s="148"/>
+      <c r="J112" s="148"/>
+      <c r="K112" s="148"/>
+      <c r="L112" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -21776,14 +21769,14 @@
       <c r="C1" s="50"/>
       <c r="D1" s="50"/>
       <c r="E1" s="50"/>
-      <c r="F1" s="137" t="s">
+      <c r="F1" s="165" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
       <c r="N1" s="50"/>
@@ -21797,12 +21790,12 @@
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
       <c r="E2" s="50"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
       <c r="L2" s="50"/>
       <c r="M2" s="50"/>
       <c r="N2" s="50"/>
@@ -21816,12 +21809,12 @@
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
       <c r="E3" s="50"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
       <c r="L3" s="50"/>
       <c r="M3" s="50"/>
       <c r="N3" s="50"/>
@@ -21835,12 +21828,12 @@
       <c r="C4" s="50"/>
       <c r="D4" s="50"/>
       <c r="E4" s="50"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="137"/>
-      <c r="J4" s="137"/>
-      <c r="K4" s="137"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="165"/>
+      <c r="K4" s="165"/>
       <c r="L4" s="50"/>
       <c r="M4" s="50"/>
       <c r="N4" s="50"/>
@@ -21998,14 +21991,14 @@
       <c r="C1" s="50"/>
       <c r="D1" s="50"/>
       <c r="E1" s="50"/>
-      <c r="F1" s="137" t="s">
+      <c r="F1" s="165" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
       <c r="N1" s="50"/>
@@ -22019,12 +22012,12 @@
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
       <c r="E2" s="50"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
       <c r="L2" s="50"/>
       <c r="M2" s="50"/>
       <c r="N2" s="50"/>
@@ -22038,12 +22031,12 @@
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
       <c r="E3" s="50"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
       <c r="L3" s="50"/>
       <c r="M3" s="50"/>
       <c r="N3" s="50"/>
@@ -22057,12 +22050,12 @@
       <c r="C4" s="50"/>
       <c r="D4" s="50"/>
       <c r="E4" s="50"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="137"/>
-      <c r="J4" s="137"/>
-      <c r="K4" s="137"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="165"/>
+      <c r="K4" s="165"/>
       <c r="L4" s="50"/>
       <c r="M4" s="50"/>
       <c r="N4" s="50"/>
@@ -22091,7 +22084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A244" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="L97" sqref="L97"/>
     </sheetView>
   </sheetViews>
@@ -22103,14 +22096,14 @@
       <c r="C1" s="50"/>
       <c r="D1" s="50"/>
       <c r="E1" s="50"/>
-      <c r="F1" s="137" t="s">
+      <c r="F1" s="165" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="137"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
       <c r="N1" s="50"/>
@@ -22127,12 +22120,12 @@
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
       <c r="E2" s="50"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="165"/>
       <c r="L2" s="50"/>
       <c r="M2" s="50"/>
       <c r="N2" s="50"/>
@@ -22149,12 +22142,12 @@
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
       <c r="E3" s="50"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
+      <c r="F3" s="165"/>
+      <c r="G3" s="165"/>
+      <c r="H3" s="165"/>
+      <c r="I3" s="165"/>
+      <c r="J3" s="165"/>
+      <c r="K3" s="165"/>
       <c r="L3" s="50"/>
       <c r="M3" s="50"/>
       <c r="N3" s="50"/>
@@ -22171,12 +22164,12 @@
       <c r="C4" s="50"/>
       <c r="D4" s="50"/>
       <c r="E4" s="50"/>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="137"/>
-      <c r="J4" s="137"/>
-      <c r="K4" s="137"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="165"/>
+      <c r="K4" s="165"/>
       <c r="L4" s="50"/>
       <c r="M4" s="50"/>
       <c r="N4" s="50"/>
@@ -22231,24 +22224,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A1" s="152" t="s">
+      <c r="A1" s="193" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="153"/>
-      <c r="P1" s="154"/>
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="194"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="194"/>
+      <c r="K1" s="194"/>
+      <c r="L1" s="194"/>
+      <c r="M1" s="194"/>
+      <c r="N1" s="194"/>
+      <c r="O1" s="194"/>
+      <c r="P1" s="195"/>
       <c r="Q1" s="92"/>
       <c r="R1" s="92"/>
       <c r="S1" s="92"/>
@@ -22258,22 +22251,22 @@
       <c r="W1" s="92"/>
     </row>
     <row r="2" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A2" s="155"/>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="156"/>
-      <c r="J2" s="156"/>
-      <c r="K2" s="156"/>
-      <c r="L2" s="156"/>
-      <c r="M2" s="156"/>
-      <c r="N2" s="156"/>
-      <c r="O2" s="156"/>
-      <c r="P2" s="157"/>
+      <c r="A2" s="196"/>
+      <c r="B2" s="197"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="197"/>
+      <c r="K2" s="197"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="197"/>
+      <c r="N2" s="197"/>
+      <c r="O2" s="197"/>
+      <c r="P2" s="198"/>
       <c r="Q2" s="92"/>
       <c r="R2" s="92"/>
       <c r="S2" s="92"/>
@@ -22283,22 +22276,22 @@
       <c r="W2" s="92"/>
     </row>
     <row r="3" spans="1:23" ht="12.75" customHeight="1">
-      <c r="A3" s="155"/>
-      <c r="B3" s="156"/>
-      <c r="C3" s="156"/>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="156"/>
-      <c r="O3" s="156"/>
-      <c r="P3" s="157"/>
+      <c r="A3" s="196"/>
+      <c r="B3" s="197"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="197"/>
+      <c r="H3" s="197"/>
+      <c r="I3" s="197"/>
+      <c r="J3" s="197"/>
+      <c r="K3" s="197"/>
+      <c r="L3" s="197"/>
+      <c r="M3" s="197"/>
+      <c r="N3" s="197"/>
+      <c r="O3" s="197"/>
+      <c r="P3" s="198"/>
       <c r="Q3" s="92"/>
       <c r="R3" s="92"/>
       <c r="S3" s="92"/>
@@ -22308,22 +22301,22 @@
       <c r="W3" s="92"/>
     </row>
     <row r="4" spans="1:23" ht="12.75" customHeight="1" thickBot="1">
-      <c r="A4" s="158"/>
-      <c r="B4" s="159"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
-      <c r="K4" s="159"/>
-      <c r="L4" s="159"/>
-      <c r="M4" s="159"/>
-      <c r="N4" s="159"/>
-      <c r="O4" s="159"/>
-      <c r="P4" s="160"/>
+      <c r="A4" s="199"/>
+      <c r="B4" s="200"/>
+      <c r="C4" s="200"/>
+      <c r="D4" s="200"/>
+      <c r="E4" s="200"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="200"/>
+      <c r="H4" s="200"/>
+      <c r="I4" s="200"/>
+      <c r="J4" s="200"/>
+      <c r="K4" s="200"/>
+      <c r="L4" s="200"/>
+      <c r="M4" s="200"/>
+      <c r="N4" s="200"/>
+      <c r="O4" s="200"/>
+      <c r="P4" s="201"/>
       <c r="Q4" s="92"/>
       <c r="R4" s="92"/>
       <c r="S4" s="92"/>
@@ -22441,365 +22434,365 @@
       <c r="D10" s="73" t="s">
         <v>145</v>
       </c>
-      <c r="E10" s="148" t="s">
+      <c r="E10" s="168" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="173"/>
-      <c r="G10" s="173"/>
-      <c r="H10" s="148" t="s">
+      <c r="F10" s="169"/>
+      <c r="G10" s="169"/>
+      <c r="H10" s="168" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="149"/>
-      <c r="J10" s="148" t="s">
+      <c r="I10" s="170"/>
+      <c r="J10" s="168" t="s">
         <v>59</v>
       </c>
-      <c r="K10" s="149"/>
-      <c r="L10" s="148" t="s">
+      <c r="K10" s="170"/>
+      <c r="L10" s="168" t="s">
         <v>60</v>
       </c>
-      <c r="M10" s="149"/>
-      <c r="N10" s="148" t="s">
+      <c r="M10" s="170"/>
+      <c r="N10" s="168" t="s">
         <v>57</v>
       </c>
-      <c r="O10" s="173"/>
-      <c r="P10" s="149"/>
+      <c r="O10" s="169"/>
+      <c r="P10" s="170"/>
     </row>
     <row r="11" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A11" s="164" t="s">
+      <c r="A11" s="178" t="s">
         <v>140</v>
       </c>
-      <c r="B11" s="171" t="s">
+      <c r="B11" s="187" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="145" t="s">
+      <c r="C11" s="181" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="143" t="s">
+      <c r="D11" s="191" t="s">
         <v>124</v>
       </c>
-      <c r="E11" s="141" t="s">
+      <c r="E11" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="142"/>
-      <c r="G11" s="142"/>
-      <c r="H11" s="150"/>
-      <c r="I11" s="151"/>
-      <c r="J11" s="150"/>
-      <c r="K11" s="151"/>
-      <c r="L11" s="150"/>
-      <c r="M11" s="151"/>
-      <c r="N11" s="161"/>
-      <c r="O11" s="162"/>
-      <c r="P11" s="163"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="177"/>
+      <c r="H11" s="166"/>
+      <c r="I11" s="167"/>
+      <c r="J11" s="166"/>
+      <c r="K11" s="167"/>
+      <c r="L11" s="166"/>
+      <c r="M11" s="167"/>
+      <c r="N11" s="171"/>
+      <c r="O11" s="172"/>
+      <c r="P11" s="173"/>
     </row>
     <row r="12" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A12" s="165"/>
-      <c r="B12" s="169"/>
-      <c r="C12" s="140"/>
-      <c r="D12" s="144"/>
-      <c r="E12" s="146" t="s">
+      <c r="A12" s="179"/>
+      <c r="B12" s="185"/>
+      <c r="C12" s="182"/>
+      <c r="D12" s="192"/>
+      <c r="E12" s="174" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="147"/>
-      <c r="G12" s="147"/>
-      <c r="H12" s="150"/>
-      <c r="I12" s="151"/>
-      <c r="J12" s="150"/>
-      <c r="K12" s="151"/>
-      <c r="L12" s="150"/>
-      <c r="M12" s="151"/>
-      <c r="N12" s="161"/>
-      <c r="O12" s="162"/>
-      <c r="P12" s="163"/>
+      <c r="F12" s="175"/>
+      <c r="G12" s="175"/>
+      <c r="H12" s="166"/>
+      <c r="I12" s="167"/>
+      <c r="J12" s="166"/>
+      <c r="K12" s="167"/>
+      <c r="L12" s="166"/>
+      <c r="M12" s="167"/>
+      <c r="N12" s="171"/>
+      <c r="O12" s="172"/>
+      <c r="P12" s="173"/>
     </row>
     <row r="13" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A13" s="165"/>
-      <c r="B13" s="169"/>
-      <c r="C13" s="167" t="s">
+      <c r="A13" s="179"/>
+      <c r="B13" s="185"/>
+      <c r="C13" s="183" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="143" t="s">
+      <c r="D13" s="191" t="s">
         <v>124</v>
       </c>
-      <c r="E13" s="141" t="s">
+      <c r="E13" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="142"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="150"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="150"/>
-      <c r="K13" s="151"/>
-      <c r="L13" s="150"/>
-      <c r="M13" s="151"/>
-      <c r="N13" s="161"/>
-      <c r="O13" s="162"/>
-      <c r="P13" s="163"/>
+      <c r="F13" s="177"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="166"/>
+      <c r="I13" s="167"/>
+      <c r="J13" s="166"/>
+      <c r="K13" s="167"/>
+      <c r="L13" s="166"/>
+      <c r="M13" s="167"/>
+      <c r="N13" s="171"/>
+      <c r="O13" s="172"/>
+      <c r="P13" s="173"/>
     </row>
     <row r="14" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A14" s="165"/>
-      <c r="B14" s="169"/>
-      <c r="C14" s="167"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="146" t="s">
+      <c r="A14" s="179"/>
+      <c r="B14" s="185"/>
+      <c r="C14" s="183"/>
+      <c r="D14" s="192"/>
+      <c r="E14" s="174" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="147"/>
-      <c r="G14" s="147"/>
-      <c r="H14" s="150"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="150"/>
-      <c r="K14" s="151"/>
-      <c r="L14" s="150"/>
-      <c r="M14" s="151"/>
-      <c r="N14" s="161"/>
-      <c r="O14" s="162"/>
-      <c r="P14" s="163"/>
+      <c r="F14" s="175"/>
+      <c r="G14" s="175"/>
+      <c r="H14" s="166"/>
+      <c r="I14" s="167"/>
+      <c r="J14" s="166"/>
+      <c r="K14" s="167"/>
+      <c r="L14" s="166"/>
+      <c r="M14" s="167"/>
+      <c r="N14" s="171"/>
+      <c r="O14" s="172"/>
+      <c r="P14" s="173"/>
     </row>
     <row r="15" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A15" s="165"/>
-      <c r="B15" s="169"/>
-      <c r="C15" s="145" t="s">
+      <c r="A15" s="179"/>
+      <c r="B15" s="185"/>
+      <c r="C15" s="181" t="s">
         <v>143</v>
       </c>
-      <c r="D15" s="143" t="s">
+      <c r="D15" s="191" t="s">
         <v>124</v>
       </c>
-      <c r="E15" s="141" t="s">
+      <c r="E15" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="142"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="150"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="150"/>
-      <c r="K15" s="151"/>
-      <c r="L15" s="150"/>
-      <c r="M15" s="151"/>
-      <c r="N15" s="161"/>
-      <c r="O15" s="162"/>
-      <c r="P15" s="163"/>
+      <c r="F15" s="177"/>
+      <c r="G15" s="181"/>
+      <c r="H15" s="166"/>
+      <c r="I15" s="167"/>
+      <c r="J15" s="166"/>
+      <c r="K15" s="167"/>
+      <c r="L15" s="166"/>
+      <c r="M15" s="167"/>
+      <c r="N15" s="171"/>
+      <c r="O15" s="172"/>
+      <c r="P15" s="173"/>
     </row>
     <row r="16" spans="1:23" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A16" s="165"/>
-      <c r="B16" s="169"/>
-      <c r="C16" s="140"/>
-      <c r="D16" s="144"/>
-      <c r="E16" s="138" t="s">
+      <c r="A16" s="179"/>
+      <c r="B16" s="185"/>
+      <c r="C16" s="182"/>
+      <c r="D16" s="192"/>
+      <c r="E16" s="189" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="139"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="150"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="150"/>
-      <c r="K16" s="151"/>
-      <c r="L16" s="150"/>
-      <c r="M16" s="151"/>
-      <c r="N16" s="161"/>
-      <c r="O16" s="162"/>
-      <c r="P16" s="163"/>
+      <c r="F16" s="190"/>
+      <c r="G16" s="182"/>
+      <c r="H16" s="166"/>
+      <c r="I16" s="167"/>
+      <c r="J16" s="166"/>
+      <c r="K16" s="167"/>
+      <c r="L16" s="166"/>
+      <c r="M16" s="167"/>
+      <c r="N16" s="171"/>
+      <c r="O16" s="172"/>
+      <c r="P16" s="173"/>
     </row>
     <row r="17" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A17" s="165"/>
-      <c r="B17" s="169"/>
-      <c r="C17" s="145" t="s">
+      <c r="A17" s="179"/>
+      <c r="B17" s="185"/>
+      <c r="C17" s="181" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="143" t="s">
+      <c r="D17" s="191" t="s">
         <v>124</v>
       </c>
-      <c r="E17" s="141" t="s">
+      <c r="E17" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="142"/>
-      <c r="G17" s="145"/>
+      <c r="F17" s="177"/>
+      <c r="G17" s="181"/>
       <c r="H17" s="100"/>
       <c r="I17" s="101"/>
       <c r="J17" s="100"/>
       <c r="K17" s="101"/>
-      <c r="L17" s="150"/>
-      <c r="M17" s="151"/>
+      <c r="L17" s="166"/>
+      <c r="M17" s="167"/>
       <c r="N17" s="97"/>
       <c r="O17" s="98"/>
       <c r="P17" s="99"/>
     </row>
     <row r="18" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A18" s="165"/>
-      <c r="B18" s="172"/>
-      <c r="C18" s="140"/>
-      <c r="D18" s="144"/>
-      <c r="E18" s="138"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="140"/>
+      <c r="A18" s="179"/>
+      <c r="B18" s="188"/>
+      <c r="C18" s="182"/>
+      <c r="D18" s="192"/>
+      <c r="E18" s="189"/>
+      <c r="F18" s="190"/>
+      <c r="G18" s="182"/>
       <c r="H18" s="100"/>
       <c r="I18" s="101"/>
       <c r="J18" s="100"/>
       <c r="K18" s="101"/>
-      <c r="L18" s="150"/>
-      <c r="M18" s="151"/>
+      <c r="L18" s="166"/>
+      <c r="M18" s="167"/>
       <c r="N18" s="97"/>
       <c r="O18" s="98"/>
       <c r="P18" s="99"/>
     </row>
     <row r="19" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A19" s="165"/>
-      <c r="B19" s="168" t="s">
+      <c r="A19" s="179"/>
+      <c r="B19" s="184" t="s">
         <v>142</v>
       </c>
-      <c r="C19" s="145" t="s">
+      <c r="C19" s="181" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="143" t="s">
+      <c r="D19" s="191" t="s">
         <v>124</v>
       </c>
-      <c r="E19" s="141" t="s">
+      <c r="E19" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="150"/>
-      <c r="I19" s="151"/>
-      <c r="J19" s="150"/>
-      <c r="K19" s="151"/>
-      <c r="L19" s="150"/>
-      <c r="M19" s="151"/>
-      <c r="N19" s="161"/>
-      <c r="O19" s="162"/>
-      <c r="P19" s="163"/>
+      <c r="F19" s="177"/>
+      <c r="G19" s="177"/>
+      <c r="H19" s="166"/>
+      <c r="I19" s="167"/>
+      <c r="J19" s="166"/>
+      <c r="K19" s="167"/>
+      <c r="L19" s="166"/>
+      <c r="M19" s="167"/>
+      <c r="N19" s="171"/>
+      <c r="O19" s="172"/>
+      <c r="P19" s="173"/>
     </row>
     <row r="20" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A20" s="165"/>
-      <c r="B20" s="169"/>
-      <c r="C20" s="140"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="146" t="s">
+      <c r="A20" s="179"/>
+      <c r="B20" s="185"/>
+      <c r="C20" s="182"/>
+      <c r="D20" s="192"/>
+      <c r="E20" s="174" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="147"/>
-      <c r="G20" s="147"/>
-      <c r="H20" s="150"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="150"/>
-      <c r="K20" s="151"/>
-      <c r="L20" s="150"/>
-      <c r="M20" s="151"/>
-      <c r="N20" s="161"/>
-      <c r="O20" s="162"/>
-      <c r="P20" s="163"/>
+      <c r="F20" s="175"/>
+      <c r="G20" s="175"/>
+      <c r="H20" s="166"/>
+      <c r="I20" s="167"/>
+      <c r="J20" s="166"/>
+      <c r="K20" s="167"/>
+      <c r="L20" s="166"/>
+      <c r="M20" s="167"/>
+      <c r="N20" s="171"/>
+      <c r="O20" s="172"/>
+      <c r="P20" s="173"/>
     </row>
     <row r="21" spans="1:18" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A21" s="165"/>
-      <c r="B21" s="169"/>
-      <c r="C21" s="167" t="s">
+      <c r="A21" s="179"/>
+      <c r="B21" s="185"/>
+      <c r="C21" s="183" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="143" t="s">
+      <c r="D21" s="191" t="s">
         <v>124</v>
       </c>
-      <c r="E21" s="141" t="s">
+      <c r="E21" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="150"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="150"/>
-      <c r="K21" s="151"/>
-      <c r="L21" s="150"/>
-      <c r="M21" s="151"/>
-      <c r="N21" s="161"/>
-      <c r="O21" s="162"/>
-      <c r="P21" s="163"/>
+      <c r="F21" s="177"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="166"/>
+      <c r="I21" s="167"/>
+      <c r="J21" s="166"/>
+      <c r="K21" s="167"/>
+      <c r="L21" s="166"/>
+      <c r="M21" s="167"/>
+      <c r="N21" s="171"/>
+      <c r="O21" s="172"/>
+      <c r="P21" s="173"/>
     </row>
     <row r="22" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A22" s="165"/>
-      <c r="B22" s="169"/>
-      <c r="C22" s="167"/>
-      <c r="D22" s="144"/>
-      <c r="E22" s="146" t="s">
+      <c r="A22" s="179"/>
+      <c r="B22" s="185"/>
+      <c r="C22" s="183"/>
+      <c r="D22" s="192"/>
+      <c r="E22" s="174" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="147"/>
-      <c r="G22" s="147"/>
-      <c r="H22" s="150"/>
-      <c r="I22" s="151"/>
-      <c r="J22" s="150"/>
-      <c r="K22" s="151"/>
-      <c r="L22" s="150"/>
-      <c r="M22" s="151"/>
-      <c r="N22" s="161"/>
-      <c r="O22" s="162"/>
-      <c r="P22" s="163"/>
+      <c r="F22" s="175"/>
+      <c r="G22" s="175"/>
+      <c r="H22" s="166"/>
+      <c r="I22" s="167"/>
+      <c r="J22" s="166"/>
+      <c r="K22" s="167"/>
+      <c r="L22" s="166"/>
+      <c r="M22" s="167"/>
+      <c r="N22" s="171"/>
+      <c r="O22" s="172"/>
+      <c r="P22" s="173"/>
     </row>
     <row r="23" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A23" s="165"/>
-      <c r="B23" s="169"/>
-      <c r="C23" s="145" t="s">
+      <c r="A23" s="179"/>
+      <c r="B23" s="185"/>
+      <c r="C23" s="181" t="s">
         <v>143</v>
       </c>
-      <c r="D23" s="143" t="s">
+      <c r="D23" s="191" t="s">
         <v>124</v>
       </c>
-      <c r="E23" s="141" t="s">
+      <c r="E23" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="142"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="150"/>
-      <c r="I23" s="151"/>
-      <c r="J23" s="150"/>
-      <c r="K23" s="151"/>
-      <c r="L23" s="150"/>
-      <c r="M23" s="151"/>
-      <c r="N23" s="161"/>
-      <c r="O23" s="162"/>
-      <c r="P23" s="163"/>
+      <c r="F23" s="177"/>
+      <c r="G23" s="181"/>
+      <c r="H23" s="166"/>
+      <c r="I23" s="167"/>
+      <c r="J23" s="166"/>
+      <c r="K23" s="167"/>
+      <c r="L23" s="166"/>
+      <c r="M23" s="167"/>
+      <c r="N23" s="171"/>
+      <c r="O23" s="172"/>
+      <c r="P23" s="173"/>
       <c r="Q23" s="68"/>
       <c r="R23" s="68"/>
     </row>
     <row r="24" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A24" s="165"/>
-      <c r="B24" s="169"/>
-      <c r="C24" s="140"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="138" t="s">
+      <c r="A24" s="179"/>
+      <c r="B24" s="185"/>
+      <c r="C24" s="182"/>
+      <c r="D24" s="192"/>
+      <c r="E24" s="189" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="139"/>
-      <c r="G24" s="140"/>
-      <c r="H24" s="150"/>
-      <c r="I24" s="151"/>
-      <c r="J24" s="150"/>
-      <c r="K24" s="151"/>
-      <c r="L24" s="150"/>
-      <c r="M24" s="151"/>
-      <c r="N24" s="161"/>
-      <c r="O24" s="162"/>
-      <c r="P24" s="163"/>
+      <c r="F24" s="190"/>
+      <c r="G24" s="182"/>
+      <c r="H24" s="166"/>
+      <c r="I24" s="167"/>
+      <c r="J24" s="166"/>
+      <c r="K24" s="167"/>
+      <c r="L24" s="166"/>
+      <c r="M24" s="167"/>
+      <c r="N24" s="171"/>
+      <c r="O24" s="172"/>
+      <c r="P24" s="173"/>
       <c r="Q24" s="67"/>
       <c r="R24" s="68"/>
     </row>
     <row r="25" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A25" s="165"/>
-      <c r="B25" s="169"/>
-      <c r="C25" s="145" t="s">
+      <c r="A25" s="179"/>
+      <c r="B25" s="185"/>
+      <c r="C25" s="181" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="143" t="s">
+      <c r="D25" s="191" t="s">
         <v>124</v>
       </c>
-      <c r="E25" s="141" t="s">
+      <c r="E25" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="142"/>
-      <c r="G25" s="145"/>
+      <c r="F25" s="177"/>
+      <c r="G25" s="181"/>
       <c r="H25" s="100"/>
       <c r="I25" s="101"/>
       <c r="J25" s="100"/>
       <c r="K25" s="101"/>
-      <c r="L25" s="150"/>
-      <c r="M25" s="151"/>
+      <c r="L25" s="166"/>
+      <c r="M25" s="167"/>
       <c r="N25" s="97"/>
       <c r="O25" s="98"/>
       <c r="P25" s="99"/>
@@ -22807,19 +22800,19 @@
       <c r="R25" s="68"/>
     </row>
     <row r="26" spans="1:18" ht="15" customHeight="1" thickBot="1">
-      <c r="A26" s="166"/>
-      <c r="B26" s="170"/>
-      <c r="C26" s="140"/>
-      <c r="D26" s="144"/>
-      <c r="E26" s="138"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="140"/>
+      <c r="A26" s="180"/>
+      <c r="B26" s="186"/>
+      <c r="C26" s="182"/>
+      <c r="D26" s="192"/>
+      <c r="E26" s="189"/>
+      <c r="F26" s="190"/>
+      <c r="G26" s="182"/>
       <c r="H26" s="100"/>
       <c r="I26" s="101"/>
       <c r="J26" s="100"/>
       <c r="K26" s="101"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="151"/>
+      <c r="L26" s="166"/>
+      <c r="M26" s="167"/>
       <c r="N26" s="97"/>
       <c r="O26" s="98"/>
       <c r="P26" s="99"/>
@@ -22848,32 +22841,49 @@
     </row>
   </sheetData>
   <mergeCells count="91">
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="A11:A26"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="B19:B26"/>
-    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:G26"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="A1:P4"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="N19:P19"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="N20:P20"/>
+    <mergeCell ref="N21:P21"/>
     <mergeCell ref="N22:P22"/>
     <mergeCell ref="N23:P23"/>
     <mergeCell ref="N14:P14"/>
@@ -22890,55 +22900,38 @@
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="E17:G18"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="N19:P19"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="N20:P20"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="A1:P4"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A11:A26"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="B19:B26"/>
+    <mergeCell ref="B11:B18"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L13:M13"/>
     <mergeCell ref="L10:M10"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="H12:I12"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:G26"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -22963,66 +22956,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
-      <c r="A1" s="185"/>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185" t="s">
+      <c r="A1" s="205"/>
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
+      <c r="E1" s="205" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="185"/>
-      <c r="N1" s="185"/>
-      <c r="O1" s="185"/>
-      <c r="P1" s="185"/>
-      <c r="Q1" s="185"/>
-      <c r="R1" s="185"/>
-      <c r="S1" s="185"/>
-      <c r="T1" s="185"/>
-      <c r="U1" s="185"/>
-      <c r="V1" s="185"/>
-      <c r="W1" s="185"/>
-      <c r="X1" s="185"/>
-      <c r="Y1" s="185"/>
-      <c r="Z1" s="185"/>
-      <c r="AA1" s="185"/>
-      <c r="AB1" s="185"/>
-      <c r="AC1" s="185"/>
-      <c r="AD1" s="185"/>
-      <c r="AE1" s="185"/>
-      <c r="AF1" s="185"/>
-      <c r="AG1" s="185"/>
-      <c r="AH1" s="185"/>
+      <c r="F1" s="205"/>
+      <c r="G1" s="205"/>
+      <c r="H1" s="205"/>
+      <c r="I1" s="205"/>
+      <c r="J1" s="205"/>
+      <c r="K1" s="205"/>
+      <c r="L1" s="205"/>
+      <c r="M1" s="205"/>
+      <c r="N1" s="205"/>
+      <c r="O1" s="205"/>
+      <c r="P1" s="205"/>
+      <c r="Q1" s="205"/>
+      <c r="R1" s="205"/>
+      <c r="S1" s="205"/>
+      <c r="T1" s="205"/>
+      <c r="U1" s="205"/>
+      <c r="V1" s="205"/>
+      <c r="W1" s="205"/>
+      <c r="X1" s="205"/>
+      <c r="Y1" s="205"/>
+      <c r="Z1" s="205"/>
+      <c r="AA1" s="205"/>
+      <c r="AB1" s="205"/>
+      <c r="AC1" s="205"/>
+      <c r="AD1" s="205"/>
+      <c r="AE1" s="205"/>
+      <c r="AF1" s="205"/>
+      <c r="AG1" s="205"/>
+      <c r="AH1" s="205"/>
     </row>
     <row r="2" spans="1:35">
-      <c r="A2" s="185"/>
-      <c r="B2" s="185"/>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
+      <c r="A2" s="205"/>
+      <c r="B2" s="205"/>
+      <c r="C2" s="205"/>
+      <c r="D2" s="205"/>
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
       <c r="G2" s="23"/>
       <c r="H2" s="23"/>
-      <c r="I2" s="185" t="s">
+      <c r="I2" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="185"/>
-      <c r="N2" s="185"/>
-      <c r="O2" s="185"/>
-      <c r="P2" s="185"/>
-      <c r="Q2" s="185"/>
-      <c r="R2" s="185"/>
-      <c r="S2" s="185"/>
-      <c r="T2" s="185"/>
+      <c r="J2" s="205"/>
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="205"/>
+      <c r="N2" s="205"/>
+      <c r="O2" s="205"/>
+      <c r="P2" s="205"/>
+      <c r="Q2" s="205"/>
+      <c r="R2" s="205"/>
+      <c r="S2" s="205"/>
+      <c r="T2" s="205"/>
       <c r="U2" s="23"/>
       <c r="V2" s="23"/>
       <c r="W2" s="23"/>
@@ -23039,10 +23032,10 @@
       <c r="AH2" s="23"/>
     </row>
     <row r="3" spans="1:35">
-      <c r="A3" s="185"/>
-      <c r="B3" s="185"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
+      <c r="A3" s="205"/>
+      <c r="B3" s="205"/>
+      <c r="C3" s="205"/>
+      <c r="D3" s="205"/>
       <c r="E3" s="13">
         <v>1</v>
       </c>
@@ -23135,14 +23128,14 @@
       </c>
     </row>
     <row r="4" spans="1:35">
-      <c r="A4" s="186" t="s">
+      <c r="A4" s="206" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="177" t="s">
+      <c r="B4" s="210" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
+      <c r="C4" s="210"/>
+      <c r="D4" s="210"/>
       <c r="F4" s="16"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -23174,12 +23167,12 @@
       <c r="AH4" s="16"/>
     </row>
     <row r="5" spans="1:35">
-      <c r="A5" s="186"/>
-      <c r="B5" s="177" t="s">
+      <c r="A5" s="206"/>
+      <c r="B5" s="210" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="177"/>
-      <c r="D5" s="177"/>
+      <c r="C5" s="210"/>
+      <c r="D5" s="210"/>
       <c r="E5" s="16"/>
       <c r="F5" s="86"/>
       <c r="G5" s="86"/>
@@ -23212,12 +23205,12 @@
       <c r="AH5" s="16"/>
     </row>
     <row r="6" spans="1:35">
-      <c r="A6" s="186"/>
-      <c r="B6" s="177" t="s">
+      <c r="A6" s="206"/>
+      <c r="B6" s="210" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="177"/>
-      <c r="D6" s="177"/>
+      <c r="C6" s="210"/>
+      <c r="D6" s="210"/>
       <c r="E6" s="16"/>
       <c r="F6" s="86"/>
       <c r="G6" s="86"/>
@@ -23250,12 +23243,12 @@
       <c r="AH6" s="16"/>
     </row>
     <row r="7" spans="1:35">
-      <c r="A7" s="186"/>
-      <c r="B7" s="177" t="s">
+      <c r="A7" s="206"/>
+      <c r="B7" s="210" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="177"/>
-      <c r="D7" s="177"/>
+      <c r="C7" s="210"/>
+      <c r="D7" s="210"/>
       <c r="E7" s="16"/>
       <c r="F7" s="86"/>
       <c r="G7" s="86"/>
@@ -23325,66 +23318,66 @@
       <c r="AI8" s="18"/>
     </row>
     <row r="9" spans="1:35">
-      <c r="A9" s="185"/>
-      <c r="B9" s="185"/>
-      <c r="C9" s="185"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="185" t="s">
+      <c r="A9" s="205"/>
+      <c r="B9" s="205"/>
+      <c r="C9" s="205"/>
+      <c r="D9" s="205"/>
+      <c r="E9" s="205" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="185"/>
-      <c r="G9" s="185"/>
-      <c r="H9" s="185"/>
-      <c r="I9" s="185"/>
-      <c r="J9" s="185"/>
-      <c r="K9" s="185"/>
-      <c r="L9" s="185"/>
-      <c r="M9" s="185"/>
-      <c r="N9" s="185"/>
-      <c r="O9" s="185"/>
-      <c r="P9" s="185"/>
-      <c r="Q9" s="185"/>
-      <c r="R9" s="185"/>
-      <c r="S9" s="185"/>
-      <c r="T9" s="185"/>
-      <c r="U9" s="185"/>
-      <c r="V9" s="185"/>
-      <c r="W9" s="185"/>
-      <c r="X9" s="185"/>
-      <c r="Y9" s="185"/>
-      <c r="Z9" s="185"/>
-      <c r="AA9" s="185"/>
-      <c r="AB9" s="185"/>
-      <c r="AC9" s="185"/>
-      <c r="AD9" s="185"/>
-      <c r="AE9" s="185"/>
-      <c r="AF9" s="185"/>
-      <c r="AG9" s="185"/>
-      <c r="AH9" s="185"/>
+      <c r="F9" s="205"/>
+      <c r="G9" s="205"/>
+      <c r="H9" s="205"/>
+      <c r="I9" s="205"/>
+      <c r="J9" s="205"/>
+      <c r="K9" s="205"/>
+      <c r="L9" s="205"/>
+      <c r="M9" s="205"/>
+      <c r="N9" s="205"/>
+      <c r="O9" s="205"/>
+      <c r="P9" s="205"/>
+      <c r="Q9" s="205"/>
+      <c r="R9" s="205"/>
+      <c r="S9" s="205"/>
+      <c r="T9" s="205"/>
+      <c r="U9" s="205"/>
+      <c r="V9" s="205"/>
+      <c r="W9" s="205"/>
+      <c r="X9" s="205"/>
+      <c r="Y9" s="205"/>
+      <c r="Z9" s="205"/>
+      <c r="AA9" s="205"/>
+      <c r="AB9" s="205"/>
+      <c r="AC9" s="205"/>
+      <c r="AD9" s="205"/>
+      <c r="AE9" s="205"/>
+      <c r="AF9" s="205"/>
+      <c r="AG9" s="205"/>
+      <c r="AH9" s="205"/>
     </row>
     <row r="10" spans="1:35">
-      <c r="A10" s="185"/>
-      <c r="B10" s="185"/>
-      <c r="C10" s="185"/>
-      <c r="D10" s="185"/>
+      <c r="A10" s="205"/>
+      <c r="B10" s="205"/>
+      <c r="C10" s="205"/>
+      <c r="D10" s="205"/>
       <c r="E10" s="23"/>
       <c r="F10" s="23"/>
       <c r="G10" s="23"/>
       <c r="H10" s="23"/>
-      <c r="I10" s="185" t="s">
+      <c r="I10" s="205" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="185"/>
-      <c r="K10" s="185"/>
-      <c r="L10" s="185"/>
-      <c r="M10" s="185"/>
-      <c r="N10" s="185"/>
-      <c r="O10" s="185"/>
-      <c r="P10" s="185"/>
-      <c r="Q10" s="185"/>
-      <c r="R10" s="185"/>
-      <c r="S10" s="185"/>
-      <c r="T10" s="185"/>
+      <c r="J10" s="205"/>
+      <c r="K10" s="205"/>
+      <c r="L10" s="205"/>
+      <c r="M10" s="205"/>
+      <c r="N10" s="205"/>
+      <c r="O10" s="205"/>
+      <c r="P10" s="205"/>
+      <c r="Q10" s="205"/>
+      <c r="R10" s="205"/>
+      <c r="S10" s="205"/>
+      <c r="T10" s="205"/>
       <c r="U10" s="23"/>
       <c r="V10" s="23"/>
       <c r="W10" s="23"/>
@@ -23401,10 +23394,10 @@
       <c r="AH10" s="23"/>
     </row>
     <row r="11" spans="1:35">
-      <c r="A11" s="185"/>
-      <c r="B11" s="185"/>
-      <c r="C11" s="185"/>
-      <c r="D11" s="185"/>
+      <c r="A11" s="205"/>
+      <c r="B11" s="205"/>
+      <c r="C11" s="205"/>
+      <c r="D11" s="205"/>
       <c r="E11" s="13">
         <v>1</v>
       </c>
@@ -23501,10 +23494,10 @@
       <c r="B12" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="183" t="s">
+      <c r="C12" s="213" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="184"/>
+      <c r="D12" s="214"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="14"/>
@@ -23537,10 +23530,10 @@
       <c r="AH12" s="13"/>
     </row>
     <row r="13" spans="1:35">
-      <c r="A13" s="175"/>
-      <c r="B13" s="182"/>
-      <c r="C13" s="180" t="s">
-        <v>229</v>
+      <c r="A13" s="208"/>
+      <c r="B13" s="203"/>
+      <c r="C13" s="202" t="s">
+        <v>225</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>66</v>
@@ -23577,9 +23570,9 @@
       <c r="AH13" s="13"/>
     </row>
     <row r="14" spans="1:35">
-      <c r="A14" s="175"/>
-      <c r="B14" s="182"/>
-      <c r="C14" s="182"/>
+      <c r="A14" s="208"/>
+      <c r="B14" s="203"/>
+      <c r="C14" s="203"/>
       <c r="D14" s="23" t="s">
         <v>67</v>
       </c>
@@ -23615,9 +23608,9 @@
       <c r="AH14" s="13"/>
     </row>
     <row r="15" spans="1:35">
-      <c r="A15" s="175"/>
-      <c r="B15" s="182"/>
-      <c r="C15" s="182"/>
+      <c r="A15" s="208"/>
+      <c r="B15" s="203"/>
+      <c r="C15" s="203"/>
       <c r="D15" s="23" t="s">
         <v>68</v>
       </c>
@@ -23653,9 +23646,9 @@
       <c r="AH15" s="13"/>
     </row>
     <row r="16" spans="1:35">
-      <c r="A16" s="175"/>
-      <c r="B16" s="182"/>
-      <c r="C16" s="182"/>
+      <c r="A16" s="208"/>
+      <c r="B16" s="203"/>
+      <c r="C16" s="203"/>
       <c r="D16" s="23" t="s">
         <v>69</v>
       </c>
@@ -23691,11 +23684,11 @@
       <c r="AH16" s="13"/>
     </row>
     <row r="17" spans="1:45">
-      <c r="A17" s="175"/>
-      <c r="B17" s="182"/>
-      <c r="C17" s="182"/>
+      <c r="A17" s="208"/>
+      <c r="B17" s="203"/>
+      <c r="C17" s="203"/>
       <c r="D17" s="23" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
@@ -23729,9 +23722,9 @@
       <c r="AH17" s="13"/>
     </row>
     <row r="18" spans="1:45">
-      <c r="A18" s="175"/>
+      <c r="A18" s="208"/>
       <c r="B18" s="102"/>
-      <c r="C18" s="181"/>
+      <c r="C18" s="204"/>
       <c r="D18" s="103" t="s">
         <v>122</v>
       </c>
@@ -23767,12 +23760,12 @@
       <c r="AH18" s="13"/>
     </row>
     <row r="19" spans="1:45">
-      <c r="A19" s="175"/>
-      <c r="B19" s="175" t="s">
-        <v>157</v>
-      </c>
-      <c r="C19" s="180" t="s">
-        <v>157</v>
+      <c r="A19" s="208"/>
+      <c r="B19" s="208" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" s="202" t="s">
+        <v>155</v>
       </c>
       <c r="D19" s="89" t="s">
         <v>115</v>
@@ -23809,9 +23802,9 @@
       <c r="AH19" s="13"/>
     </row>
     <row r="20" spans="1:45">
-      <c r="A20" s="175"/>
-      <c r="B20" s="175"/>
-      <c r="C20" s="181"/>
+      <c r="A20" s="208"/>
+      <c r="B20" s="208"/>
+      <c r="C20" s="204"/>
       <c r="D20" s="89" t="s">
         <v>116</v>
       </c>
@@ -23858,14 +23851,14 @@
       <c r="AS20" s="29"/>
     </row>
     <row r="21" spans="1:45">
-      <c r="A21" s="175"/>
-      <c r="B21" s="174" t="s">
+      <c r="A21" s="208"/>
+      <c r="B21" s="207" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="178" t="s">
+      <c r="C21" s="211" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="179"/>
+      <c r="D21" s="212"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
@@ -23909,12 +23902,12 @@
       <c r="AS21" s="29"/>
     </row>
     <row r="22" spans="1:45">
-      <c r="A22" s="175"/>
-      <c r="B22" s="174"/>
-      <c r="C22" s="178" t="s">
+      <c r="A22" s="208"/>
+      <c r="B22" s="207"/>
+      <c r="C22" s="211" t="s">
         <v>74</v>
       </c>
-      <c r="D22" s="179"/>
+      <c r="D22" s="212"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
@@ -23958,11 +23951,11 @@
       <c r="AS22" s="29"/>
     </row>
     <row r="23" spans="1:45">
-      <c r="A23" s="175"/>
-      <c r="B23" s="174" t="s">
+      <c r="A23" s="208"/>
+      <c r="B23" s="207" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="174" t="s">
+      <c r="C23" s="207" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="87" t="s">
@@ -24011,9 +24004,9 @@
       <c r="AS23" s="29"/>
     </row>
     <row r="24" spans="1:45">
-      <c r="A24" s="175"/>
-      <c r="B24" s="174"/>
-      <c r="C24" s="174"/>
+      <c r="A24" s="208"/>
+      <c r="B24" s="207"/>
+      <c r="C24" s="207"/>
       <c r="D24" s="87" t="s">
         <v>18</v>
       </c>
@@ -24060,9 +24053,9 @@
       <c r="AS24" s="29"/>
     </row>
     <row r="25" spans="1:45">
-      <c r="A25" s="175"/>
-      <c r="B25" s="174"/>
-      <c r="C25" s="174"/>
+      <c r="A25" s="208"/>
+      <c r="B25" s="207"/>
+      <c r="C25" s="207"/>
       <c r="D25" s="87" t="s">
         <v>19</v>
       </c>
@@ -24109,9 +24102,9 @@
       <c r="AS25" s="29"/>
     </row>
     <row r="26" spans="1:45">
-      <c r="A26" s="175"/>
-      <c r="B26" s="174"/>
-      <c r="C26" s="174"/>
+      <c r="A26" s="208"/>
+      <c r="B26" s="207"/>
+      <c r="C26" s="207"/>
       <c r="D26" s="87" t="s">
         <v>20</v>
       </c>
@@ -24158,9 +24151,9 @@
       <c r="AS26" s="29"/>
     </row>
     <row r="27" spans="1:45">
-      <c r="A27" s="175"/>
-      <c r="B27" s="174"/>
-      <c r="C27" s="174" t="s">
+      <c r="A27" s="208"/>
+      <c r="B27" s="207"/>
+      <c r="C27" s="207" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="87" t="s">
@@ -24209,9 +24202,9 @@
       <c r="AS27" s="29"/>
     </row>
     <row r="28" spans="1:45">
-      <c r="A28" s="175"/>
-      <c r="B28" s="174"/>
-      <c r="C28" s="174"/>
+      <c r="A28" s="208"/>
+      <c r="B28" s="207"/>
+      <c r="C28" s="207"/>
       <c r="D28" s="87" t="s">
         <v>18</v>
       </c>
@@ -24258,9 +24251,9 @@
       <c r="AS28" s="29"/>
     </row>
     <row r="29" spans="1:45">
-      <c r="A29" s="175"/>
-      <c r="B29" s="174"/>
-      <c r="C29" s="174"/>
+      <c r="A29" s="208"/>
+      <c r="B29" s="207"/>
+      <c r="C29" s="207"/>
       <c r="D29" s="87" t="s">
         <v>19</v>
       </c>
@@ -24307,9 +24300,9 @@
       <c r="AS29" s="29"/>
     </row>
     <row r="30" spans="1:45">
-      <c r="A30" s="175"/>
-      <c r="B30" s="174"/>
-      <c r="C30" s="174" t="s">
+      <c r="A30" s="208"/>
+      <c r="B30" s="207"/>
+      <c r="C30" s="207" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="87" t="s">
@@ -24358,9 +24351,9 @@
       <c r="AS30" s="29"/>
     </row>
     <row r="31" spans="1:45">
-      <c r="A31" s="176"/>
-      <c r="B31" s="174"/>
-      <c r="C31" s="174"/>
+      <c r="A31" s="209"/>
+      <c r="B31" s="207"/>
+      <c r="C31" s="207"/>
       <c r="D31" s="87" t="s">
         <v>18</v>
       </c>
@@ -24424,14 +24417,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:AH1"/>
-    <mergeCell ref="I2:T2"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A9:D11"/>
-    <mergeCell ref="E9:AH9"/>
-    <mergeCell ref="I10:T10"/>
     <mergeCell ref="C27:C29"/>
     <mergeCell ref="C30:C31"/>
     <mergeCell ref="A13:A31"/>
@@ -24448,6 +24433,14 @@
     <mergeCell ref="C23:C26"/>
     <mergeCell ref="B13:B17"/>
     <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="E1:AH1"/>
+    <mergeCell ref="I2:T2"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="A9:D11"/>
+    <mergeCell ref="E9:AH9"/>
+    <mergeCell ref="I10:T10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24467,133 +24460,133 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="192"/>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
-      <c r="L1" s="192"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="192"/>
-      <c r="O1" s="193"/>
+      <c r="B1" s="216"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="216"/>
+      <c r="H1" s="216"/>
+      <c r="I1" s="216"/>
+      <c r="J1" s="216"/>
+      <c r="K1" s="216"/>
+      <c r="L1" s="216"/>
+      <c r="M1" s="216"/>
+      <c r="N1" s="216"/>
+      <c r="O1" s="217"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="194"/>
-      <c r="B2" s="195"/>
-      <c r="C2" s="195"/>
-      <c r="D2" s="195"/>
-      <c r="E2" s="195"/>
-      <c r="F2" s="195"/>
-      <c r="G2" s="195"/>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="195"/>
-      <c r="K2" s="195"/>
-      <c r="L2" s="195"/>
-      <c r="M2" s="195"/>
-      <c r="N2" s="195"/>
-      <c r="O2" s="196"/>
+      <c r="A2" s="218"/>
+      <c r="B2" s="219"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="219"/>
+      <c r="E2" s="219"/>
+      <c r="F2" s="219"/>
+      <c r="G2" s="219"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
+      <c r="K2" s="219"/>
+      <c r="L2" s="219"/>
+      <c r="M2" s="219"/>
+      <c r="N2" s="219"/>
+      <c r="O2" s="220"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="194"/>
-      <c r="B3" s="195"/>
-      <c r="C3" s="195"/>
-      <c r="D3" s="195"/>
-      <c r="E3" s="195"/>
-      <c r="F3" s="195"/>
-      <c r="G3" s="195"/>
-      <c r="H3" s="195"/>
-      <c r="I3" s="195"/>
-      <c r="J3" s="195"/>
-      <c r="K3" s="195"/>
-      <c r="L3" s="195"/>
-      <c r="M3" s="195"/>
-      <c r="N3" s="195"/>
-      <c r="O3" s="196"/>
+      <c r="A3" s="218"/>
+      <c r="B3" s="219"/>
+      <c r="C3" s="219"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="219"/>
+      <c r="F3" s="219"/>
+      <c r="G3" s="219"/>
+      <c r="H3" s="219"/>
+      <c r="I3" s="219"/>
+      <c r="J3" s="219"/>
+      <c r="K3" s="219"/>
+      <c r="L3" s="219"/>
+      <c r="M3" s="219"/>
+      <c r="N3" s="219"/>
+      <c r="O3" s="220"/>
     </row>
     <row r="4" spans="1:32" ht="15" thickBot="1">
-      <c r="A4" s="197"/>
-      <c r="B4" s="198"/>
-      <c r="C4" s="198"/>
-      <c r="D4" s="198"/>
-      <c r="E4" s="198"/>
-      <c r="F4" s="198"/>
-      <c r="G4" s="198"/>
-      <c r="H4" s="198"/>
-      <c r="I4" s="198"/>
-      <c r="J4" s="198"/>
-      <c r="K4" s="198"/>
-      <c r="L4" s="198"/>
-      <c r="M4" s="198"/>
-      <c r="N4" s="198"/>
-      <c r="O4" s="199"/>
+      <c r="A4" s="221"/>
+      <c r="B4" s="222"/>
+      <c r="C4" s="222"/>
+      <c r="D4" s="222"/>
+      <c r="E4" s="222"/>
+      <c r="F4" s="222"/>
+      <c r="G4" s="222"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="222"/>
+      <c r="J4" s="222"/>
+      <c r="K4" s="222"/>
+      <c r="L4" s="222"/>
+      <c r="M4" s="222"/>
+      <c r="N4" s="222"/>
+      <c r="O4" s="223"/>
     </row>
     <row r="5" spans="1:32">
       <c r="A5" s="93">
         <v>1</v>
       </c>
-      <c r="B5" s="187"/>
-      <c r="C5" s="187"/>
-      <c r="D5" s="187"/>
-      <c r="E5" s="187"/>
-      <c r="F5" s="187"/>
-      <c r="G5" s="187"/>
-      <c r="H5" s="187"/>
-      <c r="I5" s="187"/>
-      <c r="J5" s="187"/>
-      <c r="K5" s="187"/>
-      <c r="L5" s="187"/>
-      <c r="M5" s="187"/>
-      <c r="N5" s="187"/>
-      <c r="O5" s="188"/>
+      <c r="B5" s="224"/>
+      <c r="C5" s="224"/>
+      <c r="D5" s="224"/>
+      <c r="E5" s="224"/>
+      <c r="F5" s="224"/>
+      <c r="G5" s="224"/>
+      <c r="H5" s="224"/>
+      <c r="I5" s="224"/>
+      <c r="J5" s="224"/>
+      <c r="K5" s="224"/>
+      <c r="L5" s="224"/>
+      <c r="M5" s="224"/>
+      <c r="N5" s="224"/>
+      <c r="O5" s="225"/>
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="94">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="187"/>
-      <c r="C6" s="187"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="187"/>
-      <c r="I6" s="187"/>
-      <c r="J6" s="187"/>
-      <c r="K6" s="187"/>
-      <c r="L6" s="187"/>
-      <c r="M6" s="187"/>
-      <c r="N6" s="187"/>
-      <c r="O6" s="188"/>
+      <c r="B6" s="224"/>
+      <c r="C6" s="224"/>
+      <c r="D6" s="224"/>
+      <c r="E6" s="224"/>
+      <c r="F6" s="224"/>
+      <c r="G6" s="224"/>
+      <c r="H6" s="224"/>
+      <c r="I6" s="224"/>
+      <c r="J6" s="224"/>
+      <c r="K6" s="224"/>
+      <c r="L6" s="224"/>
+      <c r="M6" s="224"/>
+      <c r="N6" s="224"/>
+      <c r="O6" s="225"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="94">
         <f t="shared" ref="A7:A42" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="187"/>
-      <c r="C7" s="187"/>
-      <c r="D7" s="187"/>
-      <c r="E7" s="187"/>
-      <c r="F7" s="187"/>
-      <c r="G7" s="187"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="187"/>
-      <c r="J7" s="187"/>
-      <c r="K7" s="187"/>
-      <c r="L7" s="187"/>
-      <c r="M7" s="187"/>
-      <c r="N7" s="187"/>
-      <c r="O7" s="188"/>
+      <c r="B7" s="224"/>
+      <c r="C7" s="224"/>
+      <c r="D7" s="224"/>
+      <c r="E7" s="224"/>
+      <c r="F7" s="224"/>
+      <c r="G7" s="224"/>
+      <c r="H7" s="224"/>
+      <c r="I7" s="224"/>
+      <c r="J7" s="224"/>
+      <c r="K7" s="224"/>
+      <c r="L7" s="224"/>
+      <c r="M7" s="224"/>
+      <c r="N7" s="224"/>
+      <c r="O7" s="225"/>
       <c r="W7" s="35"/>
       <c r="X7" s="35"/>
       <c r="Y7" s="35"/>
@@ -24610,20 +24603,20 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="187"/>
-      <c r="C8" s="187"/>
-      <c r="D8" s="187"/>
-      <c r="E8" s="187"/>
-      <c r="F8" s="187"/>
-      <c r="G8" s="187"/>
-      <c r="H8" s="187"/>
-      <c r="I8" s="187"/>
-      <c r="J8" s="187"/>
-      <c r="K8" s="187"/>
-      <c r="L8" s="187"/>
-      <c r="M8" s="187"/>
-      <c r="N8" s="187"/>
-      <c r="O8" s="188"/>
+      <c r="B8" s="224"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="224"/>
+      <c r="E8" s="224"/>
+      <c r="F8" s="224"/>
+      <c r="G8" s="224"/>
+      <c r="H8" s="224"/>
+      <c r="I8" s="224"/>
+      <c r="J8" s="224"/>
+      <c r="K8" s="224"/>
+      <c r="L8" s="224"/>
+      <c r="M8" s="224"/>
+      <c r="N8" s="224"/>
+      <c r="O8" s="225"/>
       <c r="W8" s="35"/>
       <c r="X8" s="35"/>
       <c r="Y8" s="35"/>
@@ -24640,20 +24633,20 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="187"/>
-      <c r="C9" s="187"/>
-      <c r="D9" s="187"/>
-      <c r="E9" s="187"/>
-      <c r="F9" s="187"/>
-      <c r="G9" s="187"/>
-      <c r="H9" s="187"/>
-      <c r="I9" s="187"/>
-      <c r="J9" s="187"/>
-      <c r="K9" s="187"/>
-      <c r="L9" s="187"/>
-      <c r="M9" s="187"/>
-      <c r="N9" s="187"/>
-      <c r="O9" s="188"/>
+      <c r="B9" s="224"/>
+      <c r="C9" s="224"/>
+      <c r="D9" s="224"/>
+      <c r="E9" s="224"/>
+      <c r="F9" s="224"/>
+      <c r="G9" s="224"/>
+      <c r="H9" s="224"/>
+      <c r="I9" s="224"/>
+      <c r="J9" s="224"/>
+      <c r="K9" s="224"/>
+      <c r="L9" s="224"/>
+      <c r="M9" s="224"/>
+      <c r="N9" s="224"/>
+      <c r="O9" s="225"/>
       <c r="W9" s="35"/>
       <c r="X9" s="35"/>
       <c r="Y9" s="35"/>
@@ -24670,20 +24663,20 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="187"/>
-      <c r="C10" s="187"/>
-      <c r="D10" s="187"/>
-      <c r="E10" s="187"/>
-      <c r="F10" s="187"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="187"/>
-      <c r="I10" s="187"/>
-      <c r="J10" s="187"/>
-      <c r="K10" s="187"/>
-      <c r="L10" s="187"/>
-      <c r="M10" s="187"/>
-      <c r="N10" s="187"/>
-      <c r="O10" s="188"/>
+      <c r="B10" s="224"/>
+      <c r="C10" s="224"/>
+      <c r="D10" s="224"/>
+      <c r="E10" s="224"/>
+      <c r="F10" s="224"/>
+      <c r="G10" s="224"/>
+      <c r="H10" s="224"/>
+      <c r="I10" s="224"/>
+      <c r="J10" s="224"/>
+      <c r="K10" s="224"/>
+      <c r="L10" s="224"/>
+      <c r="M10" s="224"/>
+      <c r="N10" s="224"/>
+      <c r="O10" s="225"/>
       <c r="W10" s="35"/>
       <c r="X10" s="35"/>
       <c r="Y10" s="35"/>
@@ -24700,20 +24693,20 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="187"/>
-      <c r="C11" s="187"/>
-      <c r="D11" s="187"/>
-      <c r="E11" s="187"/>
-      <c r="F11" s="187"/>
-      <c r="G11" s="187"/>
-      <c r="H11" s="187"/>
-      <c r="I11" s="187"/>
-      <c r="J11" s="187"/>
-      <c r="K11" s="187"/>
-      <c r="L11" s="187"/>
-      <c r="M11" s="187"/>
-      <c r="N11" s="187"/>
-      <c r="O11" s="188"/>
+      <c r="B11" s="224"/>
+      <c r="C11" s="224"/>
+      <c r="D11" s="224"/>
+      <c r="E11" s="224"/>
+      <c r="F11" s="224"/>
+      <c r="G11" s="224"/>
+      <c r="H11" s="224"/>
+      <c r="I11" s="224"/>
+      <c r="J11" s="224"/>
+      <c r="K11" s="224"/>
+      <c r="L11" s="224"/>
+      <c r="M11" s="224"/>
+      <c r="N11" s="224"/>
+      <c r="O11" s="225"/>
       <c r="W11" s="35"/>
       <c r="X11" s="35"/>
       <c r="Y11" s="35"/>
@@ -24730,20 +24723,20 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="187"/>
-      <c r="C12" s="187"/>
-      <c r="D12" s="187"/>
-      <c r="E12" s="187"/>
-      <c r="F12" s="187"/>
-      <c r="G12" s="187"/>
-      <c r="H12" s="187"/>
-      <c r="I12" s="187"/>
-      <c r="J12" s="187"/>
-      <c r="K12" s="187"/>
-      <c r="L12" s="187"/>
-      <c r="M12" s="187"/>
-      <c r="N12" s="187"/>
-      <c r="O12" s="188"/>
+      <c r="B12" s="224"/>
+      <c r="C12" s="224"/>
+      <c r="D12" s="224"/>
+      <c r="E12" s="224"/>
+      <c r="F12" s="224"/>
+      <c r="G12" s="224"/>
+      <c r="H12" s="224"/>
+      <c r="I12" s="224"/>
+      <c r="J12" s="224"/>
+      <c r="K12" s="224"/>
+      <c r="L12" s="224"/>
+      <c r="M12" s="224"/>
+      <c r="N12" s="224"/>
+      <c r="O12" s="225"/>
       <c r="W12" s="35"/>
       <c r="X12" s="35"/>
       <c r="Y12" s="35"/>
@@ -24760,20 +24753,20 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="187"/>
-      <c r="C13" s="187"/>
-      <c r="D13" s="187"/>
-      <c r="E13" s="187"/>
-      <c r="F13" s="187"/>
-      <c r="G13" s="187"/>
-      <c r="H13" s="187"/>
-      <c r="I13" s="187"/>
-      <c r="J13" s="187"/>
-      <c r="K13" s="187"/>
-      <c r="L13" s="187"/>
-      <c r="M13" s="187"/>
-      <c r="N13" s="187"/>
-      <c r="O13" s="188"/>
+      <c r="B13" s="224"/>
+      <c r="C13" s="224"/>
+      <c r="D13" s="224"/>
+      <c r="E13" s="224"/>
+      <c r="F13" s="224"/>
+      <c r="G13" s="224"/>
+      <c r="H13" s="224"/>
+      <c r="I13" s="224"/>
+      <c r="J13" s="224"/>
+      <c r="K13" s="224"/>
+      <c r="L13" s="224"/>
+      <c r="M13" s="224"/>
+      <c r="N13" s="224"/>
+      <c r="O13" s="225"/>
       <c r="W13" s="35"/>
       <c r="X13" s="35"/>
       <c r="Y13" s="35"/>
@@ -24790,20 +24783,20 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B14" s="187"/>
-      <c r="C14" s="187"/>
-      <c r="D14" s="187"/>
-      <c r="E14" s="187"/>
-      <c r="F14" s="187"/>
-      <c r="G14" s="187"/>
-      <c r="H14" s="187"/>
-      <c r="I14" s="187"/>
-      <c r="J14" s="187"/>
-      <c r="K14" s="187"/>
-      <c r="L14" s="187"/>
-      <c r="M14" s="187"/>
-      <c r="N14" s="187"/>
-      <c r="O14" s="188"/>
+      <c r="B14" s="224"/>
+      <c r="C14" s="224"/>
+      <c r="D14" s="224"/>
+      <c r="E14" s="224"/>
+      <c r="F14" s="224"/>
+      <c r="G14" s="224"/>
+      <c r="H14" s="224"/>
+      <c r="I14" s="224"/>
+      <c r="J14" s="224"/>
+      <c r="K14" s="224"/>
+      <c r="L14" s="224"/>
+      <c r="M14" s="224"/>
+      <c r="N14" s="224"/>
+      <c r="O14" s="225"/>
       <c r="W14" s="35"/>
       <c r="X14" s="35"/>
       <c r="Y14" s="35"/>
@@ -24820,20 +24813,20 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="187"/>
-      <c r="C15" s="187"/>
-      <c r="D15" s="187"/>
-      <c r="E15" s="187"/>
-      <c r="F15" s="187"/>
-      <c r="G15" s="187"/>
-      <c r="H15" s="187"/>
-      <c r="I15" s="187"/>
-      <c r="J15" s="187"/>
-      <c r="K15" s="187"/>
-      <c r="L15" s="187"/>
-      <c r="M15" s="187"/>
-      <c r="N15" s="187"/>
-      <c r="O15" s="188"/>
+      <c r="B15" s="224"/>
+      <c r="C15" s="224"/>
+      <c r="D15" s="224"/>
+      <c r="E15" s="224"/>
+      <c r="F15" s="224"/>
+      <c r="G15" s="224"/>
+      <c r="H15" s="224"/>
+      <c r="I15" s="224"/>
+      <c r="J15" s="224"/>
+      <c r="K15" s="224"/>
+      <c r="L15" s="224"/>
+      <c r="M15" s="224"/>
+      <c r="N15" s="224"/>
+      <c r="O15" s="225"/>
       <c r="W15" s="35"/>
       <c r="X15" s="35"/>
       <c r="Y15" s="35"/>
@@ -24850,20 +24843,20 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" s="187"/>
-      <c r="C16" s="187"/>
-      <c r="D16" s="187"/>
-      <c r="E16" s="187"/>
-      <c r="F16" s="187"/>
-      <c r="G16" s="187"/>
-      <c r="H16" s="187"/>
-      <c r="I16" s="187"/>
-      <c r="J16" s="187"/>
-      <c r="K16" s="187"/>
-      <c r="L16" s="187"/>
-      <c r="M16" s="187"/>
-      <c r="N16" s="187"/>
-      <c r="O16" s="188"/>
+      <c r="B16" s="224"/>
+      <c r="C16" s="224"/>
+      <c r="D16" s="224"/>
+      <c r="E16" s="224"/>
+      <c r="F16" s="224"/>
+      <c r="G16" s="224"/>
+      <c r="H16" s="224"/>
+      <c r="I16" s="224"/>
+      <c r="J16" s="224"/>
+      <c r="K16" s="224"/>
+      <c r="L16" s="224"/>
+      <c r="M16" s="224"/>
+      <c r="N16" s="224"/>
+      <c r="O16" s="225"/>
       <c r="W16" s="35"/>
       <c r="X16" s="35"/>
       <c r="Y16" s="35"/>
@@ -24880,20 +24873,20 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" s="187"/>
-      <c r="C17" s="187"/>
-      <c r="D17" s="187"/>
-      <c r="E17" s="187"/>
-      <c r="F17" s="187"/>
-      <c r="G17" s="187"/>
-      <c r="H17" s="187"/>
-      <c r="I17" s="187"/>
-      <c r="J17" s="187"/>
-      <c r="K17" s="187"/>
-      <c r="L17" s="187"/>
-      <c r="M17" s="187"/>
-      <c r="N17" s="187"/>
-      <c r="O17" s="188"/>
+      <c r="B17" s="224"/>
+      <c r="C17" s="224"/>
+      <c r="D17" s="224"/>
+      <c r="E17" s="224"/>
+      <c r="F17" s="224"/>
+      <c r="G17" s="224"/>
+      <c r="H17" s="224"/>
+      <c r="I17" s="224"/>
+      <c r="J17" s="224"/>
+      <c r="K17" s="224"/>
+      <c r="L17" s="224"/>
+      <c r="M17" s="224"/>
+      <c r="N17" s="224"/>
+      <c r="O17" s="225"/>
       <c r="W17" s="35"/>
       <c r="X17" s="35"/>
       <c r="Y17" s="35"/>
@@ -24910,20 +24903,20 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" s="187"/>
-      <c r="C18" s="187"/>
-      <c r="D18" s="187"/>
-      <c r="E18" s="187"/>
-      <c r="F18" s="187"/>
-      <c r="G18" s="187"/>
-      <c r="H18" s="187"/>
-      <c r="I18" s="187"/>
-      <c r="J18" s="187"/>
-      <c r="K18" s="187"/>
-      <c r="L18" s="187"/>
-      <c r="M18" s="187"/>
-      <c r="N18" s="187"/>
-      <c r="O18" s="188"/>
+      <c r="B18" s="224"/>
+      <c r="C18" s="224"/>
+      <c r="D18" s="224"/>
+      <c r="E18" s="224"/>
+      <c r="F18" s="224"/>
+      <c r="G18" s="224"/>
+      <c r="H18" s="224"/>
+      <c r="I18" s="224"/>
+      <c r="J18" s="224"/>
+      <c r="K18" s="224"/>
+      <c r="L18" s="224"/>
+      <c r="M18" s="224"/>
+      <c r="N18" s="224"/>
+      <c r="O18" s="225"/>
       <c r="W18" s="35"/>
       <c r="X18" s="35"/>
       <c r="Y18" s="35"/>
@@ -24940,20 +24933,20 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" s="187"/>
-      <c r="C19" s="187"/>
-      <c r="D19" s="187"/>
-      <c r="E19" s="187"/>
-      <c r="F19" s="187"/>
-      <c r="G19" s="187"/>
-      <c r="H19" s="187"/>
-      <c r="I19" s="187"/>
-      <c r="J19" s="187"/>
-      <c r="K19" s="187"/>
-      <c r="L19" s="187"/>
-      <c r="M19" s="187"/>
-      <c r="N19" s="187"/>
-      <c r="O19" s="188"/>
+      <c r="B19" s="224"/>
+      <c r="C19" s="224"/>
+      <c r="D19" s="224"/>
+      <c r="E19" s="224"/>
+      <c r="F19" s="224"/>
+      <c r="G19" s="224"/>
+      <c r="H19" s="224"/>
+      <c r="I19" s="224"/>
+      <c r="J19" s="224"/>
+      <c r="K19" s="224"/>
+      <c r="L19" s="224"/>
+      <c r="M19" s="224"/>
+      <c r="N19" s="224"/>
+      <c r="O19" s="225"/>
       <c r="W19" s="35"/>
       <c r="X19" s="35"/>
       <c r="Y19" s="35"/>
@@ -24970,20 +24963,20 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B20" s="187"/>
-      <c r="C20" s="187"/>
-      <c r="D20" s="187"/>
-      <c r="E20" s="187"/>
-      <c r="F20" s="187"/>
-      <c r="G20" s="187"/>
-      <c r="H20" s="187"/>
-      <c r="I20" s="187"/>
-      <c r="J20" s="187"/>
-      <c r="K20" s="187"/>
-      <c r="L20" s="187"/>
-      <c r="M20" s="187"/>
-      <c r="N20" s="187"/>
-      <c r="O20" s="188"/>
+      <c r="B20" s="224"/>
+      <c r="C20" s="224"/>
+      <c r="D20" s="224"/>
+      <c r="E20" s="224"/>
+      <c r="F20" s="224"/>
+      <c r="G20" s="224"/>
+      <c r="H20" s="224"/>
+      <c r="I20" s="224"/>
+      <c r="J20" s="224"/>
+      <c r="K20" s="224"/>
+      <c r="L20" s="224"/>
+      <c r="M20" s="224"/>
+      <c r="N20" s="224"/>
+      <c r="O20" s="225"/>
       <c r="W20" s="35"/>
       <c r="X20" s="35"/>
       <c r="Y20" s="35"/>
@@ -25000,20 +24993,20 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B21" s="187"/>
-      <c r="C21" s="187"/>
-      <c r="D21" s="187"/>
-      <c r="E21" s="187"/>
-      <c r="F21" s="187"/>
-      <c r="G21" s="187"/>
-      <c r="H21" s="187"/>
-      <c r="I21" s="187"/>
-      <c r="J21" s="187"/>
-      <c r="K21" s="187"/>
-      <c r="L21" s="187"/>
-      <c r="M21" s="187"/>
-      <c r="N21" s="187"/>
-      <c r="O21" s="188"/>
+      <c r="B21" s="224"/>
+      <c r="C21" s="224"/>
+      <c r="D21" s="224"/>
+      <c r="E21" s="224"/>
+      <c r="F21" s="224"/>
+      <c r="G21" s="224"/>
+      <c r="H21" s="224"/>
+      <c r="I21" s="224"/>
+      <c r="J21" s="224"/>
+      <c r="K21" s="224"/>
+      <c r="L21" s="224"/>
+      <c r="M21" s="224"/>
+      <c r="N21" s="224"/>
+      <c r="O21" s="225"/>
       <c r="W21" s="35"/>
       <c r="X21" s="35"/>
       <c r="Y21" s="35"/>
@@ -25030,20 +25023,20 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B22" s="187"/>
-      <c r="C22" s="187"/>
-      <c r="D22" s="187"/>
-      <c r="E22" s="187"/>
-      <c r="F22" s="187"/>
-      <c r="G22" s="187"/>
-      <c r="H22" s="187"/>
-      <c r="I22" s="187"/>
-      <c r="J22" s="187"/>
-      <c r="K22" s="187"/>
-      <c r="L22" s="187"/>
-      <c r="M22" s="187"/>
-      <c r="N22" s="187"/>
-      <c r="O22" s="188"/>
+      <c r="B22" s="224"/>
+      <c r="C22" s="224"/>
+      <c r="D22" s="224"/>
+      <c r="E22" s="224"/>
+      <c r="F22" s="224"/>
+      <c r="G22" s="224"/>
+      <c r="H22" s="224"/>
+      <c r="I22" s="224"/>
+      <c r="J22" s="224"/>
+      <c r="K22" s="224"/>
+      <c r="L22" s="224"/>
+      <c r="M22" s="224"/>
+      <c r="N22" s="224"/>
+      <c r="O22" s="225"/>
       <c r="W22" s="35"/>
       <c r="X22" s="35"/>
       <c r="Y22" s="35"/>
@@ -25060,20 +25053,20 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B23" s="187"/>
-      <c r="C23" s="187"/>
-      <c r="D23" s="187"/>
-      <c r="E23" s="187"/>
-      <c r="F23" s="187"/>
-      <c r="G23" s="187"/>
-      <c r="H23" s="187"/>
-      <c r="I23" s="187"/>
-      <c r="J23" s="187"/>
-      <c r="K23" s="187"/>
-      <c r="L23" s="187"/>
-      <c r="M23" s="187"/>
-      <c r="N23" s="187"/>
-      <c r="O23" s="188"/>
+      <c r="B23" s="224"/>
+      <c r="C23" s="224"/>
+      <c r="D23" s="224"/>
+      <c r="E23" s="224"/>
+      <c r="F23" s="224"/>
+      <c r="G23" s="224"/>
+      <c r="H23" s="224"/>
+      <c r="I23" s="224"/>
+      <c r="J23" s="224"/>
+      <c r="K23" s="224"/>
+      <c r="L23" s="224"/>
+      <c r="M23" s="224"/>
+      <c r="N23" s="224"/>
+      <c r="O23" s="225"/>
       <c r="W23" s="35"/>
       <c r="X23" s="35"/>
       <c r="Y23" s="35"/>
@@ -25090,20 +25083,20 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B24" s="187"/>
-      <c r="C24" s="187"/>
-      <c r="D24" s="187"/>
-      <c r="E24" s="187"/>
-      <c r="F24" s="187"/>
-      <c r="G24" s="187"/>
-      <c r="H24" s="187"/>
-      <c r="I24" s="187"/>
-      <c r="J24" s="187"/>
-      <c r="K24" s="187"/>
-      <c r="L24" s="187"/>
-      <c r="M24" s="187"/>
-      <c r="N24" s="187"/>
-      <c r="O24" s="188"/>
+      <c r="B24" s="224"/>
+      <c r="C24" s="224"/>
+      <c r="D24" s="224"/>
+      <c r="E24" s="224"/>
+      <c r="F24" s="224"/>
+      <c r="G24" s="224"/>
+      <c r="H24" s="224"/>
+      <c r="I24" s="224"/>
+      <c r="J24" s="224"/>
+      <c r="K24" s="224"/>
+      <c r="L24" s="224"/>
+      <c r="M24" s="224"/>
+      <c r="N24" s="224"/>
+      <c r="O24" s="225"/>
       <c r="W24" s="35"/>
       <c r="X24" s="35"/>
       <c r="Y24" s="35"/>
@@ -25120,20 +25113,20 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B25" s="187"/>
-      <c r="C25" s="187"/>
-      <c r="D25" s="187"/>
-      <c r="E25" s="187"/>
-      <c r="F25" s="187"/>
-      <c r="G25" s="187"/>
-      <c r="H25" s="187"/>
-      <c r="I25" s="187"/>
-      <c r="J25" s="187"/>
-      <c r="K25" s="187"/>
-      <c r="L25" s="187"/>
-      <c r="M25" s="187"/>
-      <c r="N25" s="187"/>
-      <c r="O25" s="188"/>
+      <c r="B25" s="224"/>
+      <c r="C25" s="224"/>
+      <c r="D25" s="224"/>
+      <c r="E25" s="224"/>
+      <c r="F25" s="224"/>
+      <c r="G25" s="224"/>
+      <c r="H25" s="224"/>
+      <c r="I25" s="224"/>
+      <c r="J25" s="224"/>
+      <c r="K25" s="224"/>
+      <c r="L25" s="224"/>
+      <c r="M25" s="224"/>
+      <c r="N25" s="224"/>
+      <c r="O25" s="225"/>
       <c r="W25" s="35"/>
       <c r="X25" s="35"/>
       <c r="Y25" s="35"/>
@@ -25150,20 +25143,20 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B26" s="187"/>
-      <c r="C26" s="187"/>
-      <c r="D26" s="187"/>
-      <c r="E26" s="187"/>
-      <c r="F26" s="187"/>
-      <c r="G26" s="187"/>
-      <c r="H26" s="187"/>
-      <c r="I26" s="187"/>
-      <c r="J26" s="187"/>
-      <c r="K26" s="187"/>
-      <c r="L26" s="187"/>
-      <c r="M26" s="187"/>
-      <c r="N26" s="187"/>
-      <c r="O26" s="188"/>
+      <c r="B26" s="224"/>
+      <c r="C26" s="224"/>
+      <c r="D26" s="224"/>
+      <c r="E26" s="224"/>
+      <c r="F26" s="224"/>
+      <c r="G26" s="224"/>
+      <c r="H26" s="224"/>
+      <c r="I26" s="224"/>
+      <c r="J26" s="224"/>
+      <c r="K26" s="224"/>
+      <c r="L26" s="224"/>
+      <c r="M26" s="224"/>
+      <c r="N26" s="224"/>
+      <c r="O26" s="225"/>
       <c r="W26" s="35"/>
       <c r="X26" s="35"/>
       <c r="Y26" s="35"/>
@@ -25180,20 +25173,20 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B27" s="187"/>
-      <c r="C27" s="187"/>
-      <c r="D27" s="187"/>
-      <c r="E27" s="187"/>
-      <c r="F27" s="187"/>
-      <c r="G27" s="187"/>
-      <c r="H27" s="187"/>
-      <c r="I27" s="187"/>
-      <c r="J27" s="187"/>
-      <c r="K27" s="187"/>
-      <c r="L27" s="187"/>
-      <c r="M27" s="187"/>
-      <c r="N27" s="187"/>
-      <c r="O27" s="188"/>
+      <c r="B27" s="224"/>
+      <c r="C27" s="224"/>
+      <c r="D27" s="224"/>
+      <c r="E27" s="224"/>
+      <c r="F27" s="224"/>
+      <c r="G27" s="224"/>
+      <c r="H27" s="224"/>
+      <c r="I27" s="224"/>
+      <c r="J27" s="224"/>
+      <c r="K27" s="224"/>
+      <c r="L27" s="224"/>
+      <c r="M27" s="224"/>
+      <c r="N27" s="224"/>
+      <c r="O27" s="225"/>
       <c r="W27" s="35"/>
       <c r="X27" s="35"/>
       <c r="Y27" s="35"/>
@@ -25210,20 +25203,20 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B28" s="187"/>
-      <c r="C28" s="187"/>
-      <c r="D28" s="187"/>
-      <c r="E28" s="187"/>
-      <c r="F28" s="187"/>
-      <c r="G28" s="187"/>
-      <c r="H28" s="187"/>
-      <c r="I28" s="187"/>
-      <c r="J28" s="187"/>
-      <c r="K28" s="187"/>
-      <c r="L28" s="187"/>
-      <c r="M28" s="187"/>
-      <c r="N28" s="187"/>
-      <c r="O28" s="188"/>
+      <c r="B28" s="224"/>
+      <c r="C28" s="224"/>
+      <c r="D28" s="224"/>
+      <c r="E28" s="224"/>
+      <c r="F28" s="224"/>
+      <c r="G28" s="224"/>
+      <c r="H28" s="224"/>
+      <c r="I28" s="224"/>
+      <c r="J28" s="224"/>
+      <c r="K28" s="224"/>
+      <c r="L28" s="224"/>
+      <c r="M28" s="224"/>
+      <c r="N28" s="224"/>
+      <c r="O28" s="225"/>
       <c r="W28" s="35"/>
       <c r="X28" s="35"/>
       <c r="Y28" s="35"/>
@@ -25240,20 +25233,20 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B29" s="187"/>
-      <c r="C29" s="187"/>
-      <c r="D29" s="187"/>
-      <c r="E29" s="187"/>
-      <c r="F29" s="187"/>
-      <c r="G29" s="187"/>
-      <c r="H29" s="187"/>
-      <c r="I29" s="187"/>
-      <c r="J29" s="187"/>
-      <c r="K29" s="187"/>
-      <c r="L29" s="187"/>
-      <c r="M29" s="187"/>
-      <c r="N29" s="187"/>
-      <c r="O29" s="188"/>
+      <c r="B29" s="224"/>
+      <c r="C29" s="224"/>
+      <c r="D29" s="224"/>
+      <c r="E29" s="224"/>
+      <c r="F29" s="224"/>
+      <c r="G29" s="224"/>
+      <c r="H29" s="224"/>
+      <c r="I29" s="224"/>
+      <c r="J29" s="224"/>
+      <c r="K29" s="224"/>
+      <c r="L29" s="224"/>
+      <c r="M29" s="224"/>
+      <c r="N29" s="224"/>
+      <c r="O29" s="225"/>
       <c r="W29" s="35"/>
       <c r="X29" s="35"/>
       <c r="Y29" s="35"/>
@@ -25270,20 +25263,20 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B30" s="187"/>
-      <c r="C30" s="187"/>
-      <c r="D30" s="187"/>
-      <c r="E30" s="187"/>
-      <c r="F30" s="187"/>
-      <c r="G30" s="187"/>
-      <c r="H30" s="187"/>
-      <c r="I30" s="187"/>
-      <c r="J30" s="187"/>
-      <c r="K30" s="187"/>
-      <c r="L30" s="187"/>
-      <c r="M30" s="187"/>
-      <c r="N30" s="187"/>
-      <c r="O30" s="188"/>
+      <c r="B30" s="224"/>
+      <c r="C30" s="224"/>
+      <c r="D30" s="224"/>
+      <c r="E30" s="224"/>
+      <c r="F30" s="224"/>
+      <c r="G30" s="224"/>
+      <c r="H30" s="224"/>
+      <c r="I30" s="224"/>
+      <c r="J30" s="224"/>
+      <c r="K30" s="224"/>
+      <c r="L30" s="224"/>
+      <c r="M30" s="224"/>
+      <c r="N30" s="224"/>
+      <c r="O30" s="225"/>
       <c r="W30" s="35"/>
       <c r="X30" s="35"/>
       <c r="Y30" s="35"/>
@@ -25300,20 +25293,20 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B31" s="187"/>
-      <c r="C31" s="187"/>
-      <c r="D31" s="187"/>
-      <c r="E31" s="187"/>
-      <c r="F31" s="187"/>
-      <c r="G31" s="187"/>
-      <c r="H31" s="187"/>
-      <c r="I31" s="187"/>
-      <c r="J31" s="187"/>
-      <c r="K31" s="187"/>
-      <c r="L31" s="187"/>
-      <c r="M31" s="187"/>
-      <c r="N31" s="187"/>
-      <c r="O31" s="188"/>
+      <c r="B31" s="224"/>
+      <c r="C31" s="224"/>
+      <c r="D31" s="224"/>
+      <c r="E31" s="224"/>
+      <c r="F31" s="224"/>
+      <c r="G31" s="224"/>
+      <c r="H31" s="224"/>
+      <c r="I31" s="224"/>
+      <c r="J31" s="224"/>
+      <c r="K31" s="224"/>
+      <c r="L31" s="224"/>
+      <c r="M31" s="224"/>
+      <c r="N31" s="224"/>
+      <c r="O31" s="225"/>
       <c r="W31" s="35"/>
       <c r="X31" s="35"/>
       <c r="Y31" s="35"/>
@@ -25330,20 +25323,20 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B32" s="187"/>
-      <c r="C32" s="187"/>
-      <c r="D32" s="187"/>
-      <c r="E32" s="187"/>
-      <c r="F32" s="187"/>
-      <c r="G32" s="187"/>
-      <c r="H32" s="187"/>
-      <c r="I32" s="187"/>
-      <c r="J32" s="187"/>
-      <c r="K32" s="187"/>
-      <c r="L32" s="187"/>
-      <c r="M32" s="187"/>
-      <c r="N32" s="187"/>
-      <c r="O32" s="188"/>
+      <c r="B32" s="224"/>
+      <c r="C32" s="224"/>
+      <c r="D32" s="224"/>
+      <c r="E32" s="224"/>
+      <c r="F32" s="224"/>
+      <c r="G32" s="224"/>
+      <c r="H32" s="224"/>
+      <c r="I32" s="224"/>
+      <c r="J32" s="224"/>
+      <c r="K32" s="224"/>
+      <c r="L32" s="224"/>
+      <c r="M32" s="224"/>
+      <c r="N32" s="224"/>
+      <c r="O32" s="225"/>
       <c r="W32" s="35"/>
       <c r="X32" s="35"/>
       <c r="Y32" s="35"/>
@@ -25360,20 +25353,20 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B33" s="187"/>
-      <c r="C33" s="187"/>
-      <c r="D33" s="187"/>
-      <c r="E33" s="187"/>
-      <c r="F33" s="187"/>
-      <c r="G33" s="187"/>
-      <c r="H33" s="187"/>
-      <c r="I33" s="187"/>
-      <c r="J33" s="187"/>
-      <c r="K33" s="187"/>
-      <c r="L33" s="187"/>
-      <c r="M33" s="187"/>
-      <c r="N33" s="187"/>
-      <c r="O33" s="188"/>
+      <c r="B33" s="224"/>
+      <c r="C33" s="224"/>
+      <c r="D33" s="224"/>
+      <c r="E33" s="224"/>
+      <c r="F33" s="224"/>
+      <c r="G33" s="224"/>
+      <c r="H33" s="224"/>
+      <c r="I33" s="224"/>
+      <c r="J33" s="224"/>
+      <c r="K33" s="224"/>
+      <c r="L33" s="224"/>
+      <c r="M33" s="224"/>
+      <c r="N33" s="224"/>
+      <c r="O33" s="225"/>
       <c r="W33" s="35"/>
       <c r="X33" s="35"/>
       <c r="Y33" s="35"/>
@@ -25390,20 +25383,20 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B34" s="187"/>
-      <c r="C34" s="187"/>
-      <c r="D34" s="187"/>
-      <c r="E34" s="187"/>
-      <c r="F34" s="187"/>
-      <c r="G34" s="187"/>
-      <c r="H34" s="187"/>
-      <c r="I34" s="187"/>
-      <c r="J34" s="187"/>
-      <c r="K34" s="187"/>
-      <c r="L34" s="187"/>
-      <c r="M34" s="187"/>
-      <c r="N34" s="187"/>
-      <c r="O34" s="188"/>
+      <c r="B34" s="224"/>
+      <c r="C34" s="224"/>
+      <c r="D34" s="224"/>
+      <c r="E34" s="224"/>
+      <c r="F34" s="224"/>
+      <c r="G34" s="224"/>
+      <c r="H34" s="224"/>
+      <c r="I34" s="224"/>
+      <c r="J34" s="224"/>
+      <c r="K34" s="224"/>
+      <c r="L34" s="224"/>
+      <c r="M34" s="224"/>
+      <c r="N34" s="224"/>
+      <c r="O34" s="225"/>
       <c r="W34" s="35"/>
       <c r="X34" s="35"/>
       <c r="Y34" s="35"/>
@@ -25420,20 +25413,20 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B35" s="187"/>
-      <c r="C35" s="187"/>
-      <c r="D35" s="187"/>
-      <c r="E35" s="187"/>
-      <c r="F35" s="187"/>
-      <c r="G35" s="187"/>
-      <c r="H35" s="187"/>
-      <c r="I35" s="187"/>
-      <c r="J35" s="187"/>
-      <c r="K35" s="187"/>
-      <c r="L35" s="187"/>
-      <c r="M35" s="187"/>
-      <c r="N35" s="187"/>
-      <c r="O35" s="188"/>
+      <c r="B35" s="224"/>
+      <c r="C35" s="224"/>
+      <c r="D35" s="224"/>
+      <c r="E35" s="224"/>
+      <c r="F35" s="224"/>
+      <c r="G35" s="224"/>
+      <c r="H35" s="224"/>
+      <c r="I35" s="224"/>
+      <c r="J35" s="224"/>
+      <c r="K35" s="224"/>
+      <c r="L35" s="224"/>
+      <c r="M35" s="224"/>
+      <c r="N35" s="224"/>
+      <c r="O35" s="225"/>
       <c r="W35" s="35"/>
       <c r="X35" s="35"/>
       <c r="Y35" s="35"/>
@@ -25450,20 +25443,20 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B36" s="187"/>
-      <c r="C36" s="187"/>
-      <c r="D36" s="187"/>
-      <c r="E36" s="187"/>
-      <c r="F36" s="187"/>
-      <c r="G36" s="187"/>
-      <c r="H36" s="187"/>
-      <c r="I36" s="187"/>
-      <c r="J36" s="187"/>
-      <c r="K36" s="187"/>
-      <c r="L36" s="187"/>
-      <c r="M36" s="187"/>
-      <c r="N36" s="187"/>
-      <c r="O36" s="188"/>
+      <c r="B36" s="224"/>
+      <c r="C36" s="224"/>
+      <c r="D36" s="224"/>
+      <c r="E36" s="224"/>
+      <c r="F36" s="224"/>
+      <c r="G36" s="224"/>
+      <c r="H36" s="224"/>
+      <c r="I36" s="224"/>
+      <c r="J36" s="224"/>
+      <c r="K36" s="224"/>
+      <c r="L36" s="224"/>
+      <c r="M36" s="224"/>
+      <c r="N36" s="224"/>
+      <c r="O36" s="225"/>
       <c r="W36" s="35"/>
       <c r="X36" s="35"/>
       <c r="Y36" s="35"/>
@@ -25480,20 +25473,20 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B37" s="187"/>
-      <c r="C37" s="187"/>
-      <c r="D37" s="187"/>
-      <c r="E37" s="187"/>
-      <c r="F37" s="187"/>
-      <c r="G37" s="187"/>
-      <c r="H37" s="187"/>
-      <c r="I37" s="187"/>
-      <c r="J37" s="187"/>
-      <c r="K37" s="187"/>
-      <c r="L37" s="187"/>
-      <c r="M37" s="187"/>
-      <c r="N37" s="187"/>
-      <c r="O37" s="188"/>
+      <c r="B37" s="224"/>
+      <c r="C37" s="224"/>
+      <c r="D37" s="224"/>
+      <c r="E37" s="224"/>
+      <c r="F37" s="224"/>
+      <c r="G37" s="224"/>
+      <c r="H37" s="224"/>
+      <c r="I37" s="224"/>
+      <c r="J37" s="224"/>
+      <c r="K37" s="224"/>
+      <c r="L37" s="224"/>
+      <c r="M37" s="224"/>
+      <c r="N37" s="224"/>
+      <c r="O37" s="225"/>
       <c r="W37" s="35"/>
       <c r="X37" s="35"/>
       <c r="Y37" s="35"/>
@@ -25510,20 +25503,20 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B38" s="187"/>
-      <c r="C38" s="187"/>
-      <c r="D38" s="187"/>
-      <c r="E38" s="187"/>
-      <c r="F38" s="187"/>
-      <c r="G38" s="187"/>
-      <c r="H38" s="187"/>
-      <c r="I38" s="187"/>
-      <c r="J38" s="187"/>
-      <c r="K38" s="187"/>
-      <c r="L38" s="187"/>
-      <c r="M38" s="187"/>
-      <c r="N38" s="187"/>
-      <c r="O38" s="188"/>
+      <c r="B38" s="224"/>
+      <c r="C38" s="224"/>
+      <c r="D38" s="224"/>
+      <c r="E38" s="224"/>
+      <c r="F38" s="224"/>
+      <c r="G38" s="224"/>
+      <c r="H38" s="224"/>
+      <c r="I38" s="224"/>
+      <c r="J38" s="224"/>
+      <c r="K38" s="224"/>
+      <c r="L38" s="224"/>
+      <c r="M38" s="224"/>
+      <c r="N38" s="224"/>
+      <c r="O38" s="225"/>
       <c r="W38" s="35"/>
       <c r="X38" s="35"/>
       <c r="Y38" s="35"/>
@@ -25540,20 +25533,20 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B39" s="187"/>
-      <c r="C39" s="187"/>
-      <c r="D39" s="187"/>
-      <c r="E39" s="187"/>
-      <c r="F39" s="187"/>
-      <c r="G39" s="187"/>
-      <c r="H39" s="187"/>
-      <c r="I39" s="187"/>
-      <c r="J39" s="187"/>
-      <c r="K39" s="187"/>
-      <c r="L39" s="187"/>
-      <c r="M39" s="187"/>
-      <c r="N39" s="187"/>
-      <c r="O39" s="188"/>
+      <c r="B39" s="224"/>
+      <c r="C39" s="224"/>
+      <c r="D39" s="224"/>
+      <c r="E39" s="224"/>
+      <c r="F39" s="224"/>
+      <c r="G39" s="224"/>
+      <c r="H39" s="224"/>
+      <c r="I39" s="224"/>
+      <c r="J39" s="224"/>
+      <c r="K39" s="224"/>
+      <c r="L39" s="224"/>
+      <c r="M39" s="224"/>
+      <c r="N39" s="224"/>
+      <c r="O39" s="225"/>
       <c r="W39" s="35"/>
       <c r="X39" s="35"/>
       <c r="Y39" s="35"/>
@@ -25570,20 +25563,20 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B40" s="187"/>
-      <c r="C40" s="187"/>
-      <c r="D40" s="187"/>
-      <c r="E40" s="187"/>
-      <c r="F40" s="187"/>
-      <c r="G40" s="187"/>
-      <c r="H40" s="187"/>
-      <c r="I40" s="187"/>
-      <c r="J40" s="187"/>
-      <c r="K40" s="187"/>
-      <c r="L40" s="187"/>
-      <c r="M40" s="187"/>
-      <c r="N40" s="187"/>
-      <c r="O40" s="188"/>
+      <c r="B40" s="224"/>
+      <c r="C40" s="224"/>
+      <c r="D40" s="224"/>
+      <c r="E40" s="224"/>
+      <c r="F40" s="224"/>
+      <c r="G40" s="224"/>
+      <c r="H40" s="224"/>
+      <c r="I40" s="224"/>
+      <c r="J40" s="224"/>
+      <c r="K40" s="224"/>
+      <c r="L40" s="224"/>
+      <c r="M40" s="224"/>
+      <c r="N40" s="224"/>
+      <c r="O40" s="225"/>
       <c r="W40" s="35"/>
       <c r="X40" s="35"/>
       <c r="Y40" s="35"/>
@@ -25600,20 +25593,20 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B41" s="187"/>
-      <c r="C41" s="187"/>
-      <c r="D41" s="187"/>
-      <c r="E41" s="187"/>
-      <c r="F41" s="187"/>
-      <c r="G41" s="187"/>
-      <c r="H41" s="187"/>
-      <c r="I41" s="187"/>
-      <c r="J41" s="187"/>
-      <c r="K41" s="187"/>
-      <c r="L41" s="187"/>
-      <c r="M41" s="187"/>
-      <c r="N41" s="187"/>
-      <c r="O41" s="188"/>
+      <c r="B41" s="224"/>
+      <c r="C41" s="224"/>
+      <c r="D41" s="224"/>
+      <c r="E41" s="224"/>
+      <c r="F41" s="224"/>
+      <c r="G41" s="224"/>
+      <c r="H41" s="224"/>
+      <c r="I41" s="224"/>
+      <c r="J41" s="224"/>
+      <c r="K41" s="224"/>
+      <c r="L41" s="224"/>
+      <c r="M41" s="224"/>
+      <c r="N41" s="224"/>
+      <c r="O41" s="225"/>
       <c r="W41" s="35"/>
       <c r="X41" s="35"/>
       <c r="Y41" s="35"/>
@@ -25630,20 +25623,20 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B42" s="189"/>
-      <c r="C42" s="189"/>
-      <c r="D42" s="189"/>
-      <c r="E42" s="189"/>
-      <c r="F42" s="189"/>
-      <c r="G42" s="189"/>
-      <c r="H42" s="189"/>
-      <c r="I42" s="189"/>
-      <c r="J42" s="189"/>
-      <c r="K42" s="189"/>
-      <c r="L42" s="189"/>
-      <c r="M42" s="189"/>
-      <c r="N42" s="189"/>
-      <c r="O42" s="190"/>
+      <c r="B42" s="226"/>
+      <c r="C42" s="226"/>
+      <c r="D42" s="226"/>
+      <c r="E42" s="226"/>
+      <c r="F42" s="226"/>
+      <c r="G42" s="226"/>
+      <c r="H42" s="226"/>
+      <c r="I42" s="226"/>
+      <c r="J42" s="226"/>
+      <c r="K42" s="226"/>
+      <c r="L42" s="226"/>
+      <c r="M42" s="226"/>
+      <c r="N42" s="226"/>
+      <c r="O42" s="227"/>
       <c r="W42" s="35"/>
       <c r="X42" s="35"/>
       <c r="Y42" s="35"/>
@@ -25693,36 +25686,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="A1:O4"/>
-    <mergeCell ref="B5:O5"/>
-    <mergeCell ref="B6:O6"/>
-    <mergeCell ref="B7:O7"/>
-    <mergeCell ref="B8:O8"/>
-    <mergeCell ref="B9:O9"/>
-    <mergeCell ref="B10:O10"/>
-    <mergeCell ref="B11:O11"/>
-    <mergeCell ref="B12:O12"/>
-    <mergeCell ref="B13:O13"/>
-    <mergeCell ref="B14:O14"/>
-    <mergeCell ref="B15:O15"/>
-    <mergeCell ref="B16:O16"/>
-    <mergeCell ref="B17:O17"/>
-    <mergeCell ref="B18:O18"/>
-    <mergeCell ref="B19:O19"/>
-    <mergeCell ref="B20:O20"/>
-    <mergeCell ref="B21:O21"/>
-    <mergeCell ref="B22:O22"/>
-    <mergeCell ref="B23:O23"/>
-    <mergeCell ref="B24:O24"/>
-    <mergeCell ref="B25:O25"/>
-    <mergeCell ref="B26:O26"/>
-    <mergeCell ref="B27:O27"/>
-    <mergeCell ref="B28:O28"/>
-    <mergeCell ref="B29:O29"/>
-    <mergeCell ref="B30:O30"/>
-    <mergeCell ref="B31:O31"/>
-    <mergeCell ref="B32:O32"/>
-    <mergeCell ref="B33:O33"/>
     <mergeCell ref="B39:O39"/>
     <mergeCell ref="B40:O40"/>
     <mergeCell ref="B41:O41"/>
@@ -25732,6 +25695,36 @@
     <mergeCell ref="B36:O36"/>
     <mergeCell ref="B37:O37"/>
     <mergeCell ref="B38:O38"/>
+    <mergeCell ref="B29:O29"/>
+    <mergeCell ref="B30:O30"/>
+    <mergeCell ref="B31:O31"/>
+    <mergeCell ref="B32:O32"/>
+    <mergeCell ref="B33:O33"/>
+    <mergeCell ref="B24:O24"/>
+    <mergeCell ref="B25:O25"/>
+    <mergeCell ref="B26:O26"/>
+    <mergeCell ref="B27:O27"/>
+    <mergeCell ref="B28:O28"/>
+    <mergeCell ref="B19:O19"/>
+    <mergeCell ref="B20:O20"/>
+    <mergeCell ref="B21:O21"/>
+    <mergeCell ref="B22:O22"/>
+    <mergeCell ref="B23:O23"/>
+    <mergeCell ref="B14:O14"/>
+    <mergeCell ref="B15:O15"/>
+    <mergeCell ref="B16:O16"/>
+    <mergeCell ref="B17:O17"/>
+    <mergeCell ref="B18:O18"/>
+    <mergeCell ref="B9:O9"/>
+    <mergeCell ref="B10:O10"/>
+    <mergeCell ref="B11:O11"/>
+    <mergeCell ref="B12:O12"/>
+    <mergeCell ref="B13:O13"/>
+    <mergeCell ref="A1:O4"/>
+    <mergeCell ref="B5:O5"/>
+    <mergeCell ref="B6:O6"/>
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="B8:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -25742,8 +25735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DD173"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="X30" sqref="X30"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -25763,14 +25756,14 @@
       <c r="G1" s="26"/>
       <c r="H1" s="26"/>
       <c r="I1" s="26"/>
-      <c r="J1" s="134" t="s">
+      <c r="J1" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
+      <c r="M1" s="159"/>
+      <c r="N1" s="159"/>
+      <c r="O1" s="159"/>
       <c r="P1" s="26"/>
       <c r="Q1" s="26"/>
       <c r="R1" s="26"/>
@@ -25872,12 +25865,12 @@
       <c r="G2" s="26"/>
       <c r="H2" s="26"/>
       <c r="I2" s="26"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="159"/>
+      <c r="O2" s="159"/>
       <c r="P2" s="26"/>
       <c r="Q2" s="26"/>
       <c r="R2" s="26"/>
@@ -25979,12 +25972,12 @@
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="134"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
+      <c r="M3" s="159"/>
+      <c r="N3" s="159"/>
+      <c r="O3" s="159"/>
       <c r="P3" s="26"/>
       <c r="Q3" s="26"/>
       <c r="R3" s="26"/>
@@ -26086,12 +26079,12 @@
       <c r="G4" s="26"/>
       <c r="H4" s="26"/>
       <c r="I4" s="26"/>
-      <c r="J4" s="134"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="134"/>
-      <c r="M4" s="134"/>
-      <c r="N4" s="134"/>
-      <c r="O4" s="134"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
+      <c r="M4" s="159"/>
+      <c r="N4" s="159"/>
+      <c r="O4" s="159"/>
       <c r="P4" s="26"/>
       <c r="Q4" s="26"/>
       <c r="R4" s="26"/>
@@ -26222,31 +26215,31 @@
         <v>139</v>
       </c>
       <c r="R8" s="25" t="s">
-        <v>167</v>
+        <v>226</v>
       </c>
       <c r="AC8" s="112"/>
       <c r="AD8" s="35"/>
       <c r="BF8" s="25" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="4:108">
       <c r="H9" s="25" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="AC9" s="112"/>
       <c r="AD9" s="35"/>
     </row>
     <row r="10" spans="4:108">
       <c r="H10" s="25" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="AC10" s="112"/>
       <c r="AD10" s="35"/>
     </row>
     <row r="11" spans="4:108">
       <c r="H11" s="25" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AC11" s="112"/>
       <c r="AD11" s="35"/>
@@ -26435,7 +26428,7 @@
       <c r="AC56" s="112"/>
       <c r="AD56" s="35"/>
       <c r="AK56" s="25" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="13:53">
@@ -26475,7 +26468,7 @@
     </row>
     <row r="65" spans="7:68">
       <c r="G65" s="113" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="S65" s="25" t="s">
         <v>30</v>
@@ -26936,109 +26929,109 @@
   </sheetPr>
   <dimension ref="A1:V58"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="D4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:22">
-      <c r="A1" s="226"/>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="227" t="s">
+      <c r="A1" s="151"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="227"/>
-      <c r="G1" s="227"/>
-      <c r="H1" s="227"/>
-      <c r="I1" s="227"/>
-      <c r="J1" s="227"/>
-      <c r="K1" s="227"/>
-      <c r="L1" s="227"/>
-      <c r="M1" s="227"/>
-      <c r="N1" s="227"/>
-      <c r="O1" s="227"/>
-      <c r="P1" s="227"/>
-      <c r="Q1" s="227"/>
-      <c r="R1" s="227"/>
-      <c r="S1" s="227"/>
-      <c r="T1" s="226"/>
-      <c r="U1" s="226"/>
-      <c r="V1" s="226"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
+      <c r="J1" s="160"/>
+      <c r="K1" s="160"/>
+      <c r="L1" s="160"/>
+      <c r="M1" s="160"/>
+      <c r="N1" s="160"/>
+      <c r="O1" s="160"/>
+      <c r="P1" s="160"/>
+      <c r="Q1" s="160"/>
+      <c r="R1" s="160"/>
+      <c r="S1" s="160"/>
+      <c r="T1" s="151"/>
+      <c r="U1" s="151"/>
+      <c r="V1" s="151"/>
     </row>
     <row r="2" spans="1:22">
-      <c r="A2" s="226"/>
-      <c r="B2" s="226"/>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="227"/>
-      <c r="F2" s="227"/>
-      <c r="G2" s="227"/>
-      <c r="H2" s="227"/>
-      <c r="I2" s="227"/>
-      <c r="J2" s="227"/>
-      <c r="K2" s="227"/>
-      <c r="L2" s="227"/>
-      <c r="M2" s="227"/>
-      <c r="N2" s="227"/>
-      <c r="O2" s="227"/>
-      <c r="P2" s="227"/>
-      <c r="Q2" s="227"/>
-      <c r="R2" s="227"/>
-      <c r="S2" s="227"/>
-      <c r="T2" s="226"/>
-      <c r="U2" s="226"/>
-      <c r="V2" s="226"/>
+      <c r="A2" s="151"/>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="160"/>
+      <c r="L2" s="160"/>
+      <c r="M2" s="160"/>
+      <c r="N2" s="160"/>
+      <c r="O2" s="160"/>
+      <c r="P2" s="160"/>
+      <c r="Q2" s="160"/>
+      <c r="R2" s="160"/>
+      <c r="S2" s="160"/>
+      <c r="T2" s="151"/>
+      <c r="U2" s="151"/>
+      <c r="V2" s="151"/>
     </row>
     <row r="3" spans="1:22">
-      <c r="A3" s="226"/>
-      <c r="B3" s="226"/>
-      <c r="C3" s="226"/>
-      <c r="D3" s="226"/>
-      <c r="E3" s="227"/>
-      <c r="F3" s="227"/>
-      <c r="G3" s="227"/>
-      <c r="H3" s="227"/>
-      <c r="I3" s="227"/>
-      <c r="J3" s="227"/>
-      <c r="K3" s="227"/>
-      <c r="L3" s="227"/>
-      <c r="M3" s="227"/>
-      <c r="N3" s="227"/>
-      <c r="O3" s="227"/>
-      <c r="P3" s="227"/>
-      <c r="Q3" s="227"/>
-      <c r="R3" s="227"/>
-      <c r="S3" s="227"/>
-      <c r="T3" s="226"/>
-      <c r="U3" s="226"/>
-      <c r="V3" s="226"/>
+      <c r="A3" s="151"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="151"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="160"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="160"/>
+      <c r="H3" s="160"/>
+      <c r="I3" s="160"/>
+      <c r="J3" s="160"/>
+      <c r="K3" s="160"/>
+      <c r="L3" s="160"/>
+      <c r="M3" s="160"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="160"/>
+      <c r="P3" s="160"/>
+      <c r="Q3" s="160"/>
+      <c r="R3" s="160"/>
+      <c r="S3" s="160"/>
+      <c r="T3" s="151"/>
+      <c r="U3" s="151"/>
+      <c r="V3" s="151"/>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="226"/>
-      <c r="B4" s="226"/>
-      <c r="C4" s="226"/>
-      <c r="D4" s="226"/>
-      <c r="E4" s="227"/>
-      <c r="F4" s="227"/>
-      <c r="G4" s="227"/>
-      <c r="H4" s="227"/>
-      <c r="I4" s="227"/>
-      <c r="J4" s="227"/>
-      <c r="K4" s="227"/>
-      <c r="L4" s="227"/>
-      <c r="M4" s="227"/>
-      <c r="N4" s="227"/>
-      <c r="O4" s="227"/>
-      <c r="P4" s="227"/>
-      <c r="Q4" s="227"/>
-      <c r="R4" s="227"/>
-      <c r="S4" s="227"/>
-      <c r="T4" s="226"/>
-      <c r="U4" s="226"/>
-      <c r="V4" s="226"/>
+      <c r="A4" s="151"/>
+      <c r="B4" s="151"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="160"/>
+      <c r="F4" s="160"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="160"/>
+      <c r="I4" s="160"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="160"/>
+      <c r="L4" s="160"/>
+      <c r="M4" s="160"/>
+      <c r="N4" s="160"/>
+      <c r="O4" s="160"/>
+      <c r="P4" s="160"/>
+      <c r="Q4" s="160"/>
+      <c r="R4" s="160"/>
+      <c r="S4" s="160"/>
+      <c r="T4" s="151"/>
+      <c r="U4" s="151"/>
+      <c r="V4" s="151"/>
     </row>
     <row r="5" spans="1:22">
       <c r="I5" s="8"/>
@@ -27075,7 +27068,7 @@
     </row>
     <row r="46" spans="20:20">
       <c r="T46" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="20:20">
@@ -27085,22 +27078,22 @@
     </row>
     <row r="51" spans="20:20">
       <c r="T51" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="20:20">
       <c r="T53" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="20:20">
       <c r="T54" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="20:20">
       <c r="T58" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -27117,7 +27110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O344"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="N213" sqref="N213"/>
     </sheetView>
   </sheetViews>
@@ -27127,74 +27120,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="225" t="s">
+      <c r="A1" s="161" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="225"/>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
-      <c r="F1" s="225"/>
-      <c r="G1" s="225"/>
-      <c r="H1" s="225"/>
-      <c r="I1" s="225"/>
-      <c r="J1" s="225"/>
-      <c r="K1" s="225"/>
-      <c r="L1" s="225"/>
-      <c r="M1" s="225"/>
-      <c r="N1" s="225"/>
-      <c r="O1" s="225"/>
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="161"/>
+      <c r="E1" s="161"/>
+      <c r="F1" s="161"/>
+      <c r="G1" s="161"/>
+      <c r="H1" s="161"/>
+      <c r="I1" s="161"/>
+      <c r="J1" s="161"/>
+      <c r="K1" s="161"/>
+      <c r="L1" s="161"/>
+      <c r="M1" s="161"/>
+      <c r="N1" s="161"/>
+      <c r="O1" s="161"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="225"/>
-      <c r="B2" s="225"/>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
-      <c r="E2" s="225"/>
-      <c r="F2" s="225"/>
-      <c r="G2" s="225"/>
-      <c r="H2" s="225"/>
-      <c r="I2" s="225"/>
-      <c r="J2" s="225"/>
-      <c r="K2" s="225"/>
-      <c r="L2" s="225"/>
-      <c r="M2" s="225"/>
-      <c r="N2" s="225"/>
-      <c r="O2" s="225"/>
+      <c r="A2" s="161"/>
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="161"/>
+      <c r="N2" s="161"/>
+      <c r="O2" s="161"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="225"/>
-      <c r="B3" s="225"/>
-      <c r="C3" s="225"/>
-      <c r="D3" s="225"/>
-      <c r="E3" s="225"/>
-      <c r="F3" s="225"/>
-      <c r="G3" s="225"/>
-      <c r="H3" s="225"/>
-      <c r="I3" s="225"/>
-      <c r="J3" s="225"/>
-      <c r="K3" s="225"/>
-      <c r="L3" s="225"/>
-      <c r="M3" s="225"/>
-      <c r="N3" s="225"/>
-      <c r="O3" s="225"/>
+      <c r="A3" s="161"/>
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
+      <c r="E3" s="161"/>
+      <c r="F3" s="161"/>
+      <c r="G3" s="161"/>
+      <c r="H3" s="161"/>
+      <c r="I3" s="161"/>
+      <c r="J3" s="161"/>
+      <c r="K3" s="161"/>
+      <c r="L3" s="161"/>
+      <c r="M3" s="161"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="161"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="225"/>
-      <c r="B4" s="225"/>
-      <c r="C4" s="225"/>
-      <c r="D4" s="225"/>
-      <c r="E4" s="225"/>
-      <c r="F4" s="225"/>
-      <c r="G4" s="225"/>
-      <c r="H4" s="225"/>
-      <c r="I4" s="225"/>
-      <c r="J4" s="225"/>
-      <c r="K4" s="225"/>
-      <c r="L4" s="225"/>
-      <c r="M4" s="225"/>
-      <c r="N4" s="225"/>
-      <c r="O4" s="225"/>
+      <c r="A4" s="161"/>
+      <c r="B4" s="161"/>
+      <c r="C4" s="161"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161"/>
+      <c r="O4" s="161"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="52" t="s">
@@ -27217,7 +27210,7 @@
       </c>
     </row>
     <row r="314" spans="10:10">
-      <c r="J314" s="224"/>
+      <c r="J314" s="150"/>
     </row>
     <row r="344" spans="12:12">
       <c r="L344" s="52" t="s">
@@ -27245,73 +27238,73 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:30">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131" t="s">
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
       <c r="M1" s="27"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:30">
-      <c r="A2" s="131"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
+      <c r="A2" s="156"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
       <c r="M2" s="27"/>
       <c r="N2" s="27"/>
       <c r="O2" s="27"/>
     </row>
     <row r="3" spans="1:30">
-      <c r="A3" s="131"/>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
+      <c r="A3" s="156"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
       <c r="M3" s="27"/>
       <c r="N3" s="27"/>
       <c r="O3" s="27"/>
     </row>
     <row r="4" spans="1:30">
-      <c r="A4" s="131"/>
-      <c r="B4" s="131"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="131"/>
-      <c r="L4" s="131"/>
+      <c r="A4" s="156"/>
+      <c r="B4" s="156"/>
+      <c r="C4" s="156"/>
+      <c r="D4" s="156"/>
+      <c r="E4" s="156"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="156"/>
+      <c r="I4" s="156"/>
+      <c r="J4" s="156"/>
+      <c r="K4" s="156"/>
+      <c r="L4" s="156"/>
       <c r="M4" s="27"/>
       <c r="N4" s="27"/>
       <c r="O4" s="27"/>
@@ -27357,12 +27350,12 @@
       </c>
     </row>
     <row r="56" spans="9:73">
-      <c r="I56" s="135" t="s">
+      <c r="I56" s="162" t="s">
         <v>84</v>
       </c>
-      <c r="J56" s="135"/>
-      <c r="K56" s="135"/>
-      <c r="L56" s="135"/>
+      <c r="J56" s="162"/>
+      <c r="K56" s="162"/>
+      <c r="L56" s="162"/>
       <c r="BU56" t="s">
         <v>86</v>
       </c>
@@ -27409,73 +27402,73 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131" t="s">
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
       <c r="M1" s="27"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="131"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
+      <c r="A2" s="156"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
       <c r="M2" s="27"/>
       <c r="N2" s="27"/>
       <c r="O2" s="27"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="131"/>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
+      <c r="A3" s="156"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
       <c r="M3" s="27"/>
       <c r="N3" s="27"/>
       <c r="O3" s="27"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="131"/>
-      <c r="B4" s="131"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="131"/>
-      <c r="L4" s="131"/>
+      <c r="A4" s="156"/>
+      <c r="B4" s="156"/>
+      <c r="C4" s="156"/>
+      <c r="D4" s="156"/>
+      <c r="E4" s="156"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="156"/>
+      <c r="I4" s="156"/>
+      <c r="J4" s="156"/>
+      <c r="K4" s="156"/>
+      <c r="L4" s="156"/>
       <c r="M4" s="27"/>
       <c r="N4" s="27"/>
       <c r="O4" s="27"/>
@@ -27500,10 +27493,10 @@
       <c r="CM38" s="96"/>
     </row>
     <row r="56" spans="9:12">
-      <c r="I56" s="135"/>
-      <c r="J56" s="135"/>
-      <c r="K56" s="135"/>
-      <c r="L56" s="135"/>
+      <c r="I56" s="162"/>
+      <c r="J56" s="162"/>
+      <c r="K56" s="162"/>
+      <c r="L56" s="162"/>
     </row>
     <row r="102" spans="33:33">
       <c r="AG102" t="s">
@@ -27541,70 +27534,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134" t="s">
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
       <c r="M1" s="26"/>
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="134"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
+      <c r="A2" s="159"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="134"/>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
+      <c r="A3" s="159"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
       <c r="M3" s="26"/>
       <c r="N3" s="26"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="134"/>
-      <c r="B4" s="134"/>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="134"/>
+      <c r="A4" s="159"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
       <c r="M4" s="26"/>
       <c r="N4" s="26"/>
     </row>
@@ -27628,10 +27621,10 @@
       <c r="CM38" s="108"/>
     </row>
     <row r="56" spans="9:12">
-      <c r="I56" s="136"/>
-      <c r="J56" s="136"/>
-      <c r="K56" s="136"/>
-      <c r="L56" s="136"/>
+      <c r="I56" s="163"/>
+      <c r="J56" s="163"/>
+      <c r="K56" s="163"/>
+      <c r="L56" s="163"/>
     </row>
     <row r="102" spans="33:33">
       <c r="AG102" s="24" t="s">
@@ -27665,73 +27658,73 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="156" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131" t="s">
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
+      <c r="H1" s="156"/>
+      <c r="I1" s="156"/>
+      <c r="J1" s="156"/>
+      <c r="K1" s="156"/>
+      <c r="L1" s="156"/>
       <c r="M1" s="27"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="131"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
+      <c r="A2" s="156"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
+      <c r="I2" s="156"/>
+      <c r="J2" s="156"/>
+      <c r="K2" s="156"/>
+      <c r="L2" s="156"/>
       <c r="M2" s="27"/>
       <c r="N2" s="27"/>
       <c r="O2" s="27"/>
     </row>
     <row r="3" spans="1:15">
-      <c r="A3" s="131"/>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
+      <c r="A3" s="156"/>
+      <c r="B3" s="156"/>
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="156"/>
+      <c r="J3" s="156"/>
+      <c r="K3" s="156"/>
+      <c r="L3" s="156"/>
       <c r="M3" s="27"/>
       <c r="N3" s="27"/>
       <c r="O3" s="27"/>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="131"/>
-      <c r="B4" s="131"/>
-      <c r="C4" s="131"/>
-      <c r="D4" s="131"/>
-      <c r="E4" s="131"/>
-      <c r="F4" s="131"/>
-      <c r="G4" s="131"/>
-      <c r="H4" s="131"/>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
-      <c r="K4" s="131"/>
-      <c r="L4" s="131"/>
+      <c r="A4" s="156"/>
+      <c r="B4" s="156"/>
+      <c r="C4" s="156"/>
+      <c r="D4" s="156"/>
+      <c r="E4" s="156"/>
+      <c r="F4" s="156"/>
+      <c r="G4" s="156"/>
+      <c r="H4" s="156"/>
+      <c r="I4" s="156"/>
+      <c r="J4" s="156"/>
+      <c r="K4" s="156"/>
+      <c r="L4" s="156"/>
       <c r="M4" s="27"/>
       <c r="N4" s="27"/>
       <c r="O4" s="27"/>
@@ -27753,10 +27746,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CM206"/>
+  <dimension ref="A1:CM238"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T228" sqref="T228"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M255" sqref="M255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -27765,70 +27758,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="134" t="s">
+      <c r="A1" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134" t="s">
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
+      <c r="L1" s="159"/>
       <c r="M1" s="26"/>
       <c r="N1" s="26"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="134"/>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
+      <c r="A2" s="159"/>
+      <c r="B2" s="159"/>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
       <c r="M2" s="26"/>
       <c r="N2" s="26"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="134"/>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="134"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="134"/>
-      <c r="L3" s="134"/>
+      <c r="A3" s="159"/>
+      <c r="B3" s="159"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
+      <c r="K3" s="159"/>
+      <c r="L3" s="159"/>
       <c r="M3" s="26"/>
       <c r="N3" s="26"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="134"/>
-      <c r="B4" s="134"/>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="134"/>
+      <c r="A4" s="159"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
+      <c r="K4" s="159"/>
+      <c r="L4" s="159"/>
       <c r="M4" s="26"/>
       <c r="N4" s="26"/>
     </row>
@@ -27837,33 +27830,33 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="24" t="s">
-        <v>138</v>
+    <row r="17" spans="1:1">
+      <c r="A17" s="24" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="91:91">
       <c r="CM38" s="108"/>
     </row>
     <row r="56" spans="9:12">
-      <c r="I56" s="136"/>
-      <c r="J56" s="136"/>
-      <c r="K56" s="136"/>
-      <c r="L56" s="136"/>
+      <c r="I56" s="163"/>
+      <c r="J56" s="163"/>
+      <c r="K56" s="163"/>
+      <c r="L56" s="163"/>
     </row>
     <row r="102" spans="33:33">
       <c r="AG102" s="24" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
-      <c r="A137" s="24" t="s">
+    <row r="120" spans="1:1">
+      <c r="A120" s="24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1">
+      <c r="A238" s="24" t="s">
         <v>137</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1">
-      <c r="A206" s="24" t="s">
-        <v>158</v>
       </c>
     </row>
   </sheetData>
